--- a/StructureDefinition-ms-bundle-hla-multilocus.xlsx
+++ b/StructureDefinition-ms-bundle-hla-multilocus.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T18:02:56-05:00</t>
+    <t>2022-11-02T14:44:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1122,7 +1122,7 @@
     <t>Information about an individual or animal receiving health care services</t>
   </si>
   <si>
-    <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
+    <t>The US Core Patient Profile is based upon the core FHIR Patient Resource and designed to meet the applicable patient demographic data elements from the 2015 Edition Common Clinical Data Set.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}

--- a/StructureDefinition-ms-bundle-hla-multilocus.xlsx
+++ b/StructureDefinition-ms-bundle-hla-multilocus.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$513</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$545</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18332" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19473" uniqueCount="940">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T18:37:26-06:00</t>
+    <t>2024-03-18T10:20:43-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1391,6 +1391,138 @@
     <t>Bundle.entry:msDiagnosis.response.outcome</t>
   </si>
   <si>
+    <t>Bundle.entry:msGenderIdentity</t>
+  </si>
+  <si>
+    <t>msGenderIdentity</t>
+  </si>
+  <si>
+    <t>MatchSync Patient Self Identified Gender</t>
+  </si>
+  <si>
+    <t>The MatchSync Patient whose data is included in the bundle (optional).</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.resource</t>
+  </si>
+  <si>
+    <t>Vital Signs
+MeasurementResultsTests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observation {http://fhir.nmdp.org/ig/matchsync/StructureDefinition/ms-patient-gender-identity-observation}
+</t>
+  </si>
+  <si>
+    <t>Measurements and simple assertions</t>
+  </si>
+  <si>
+    <t>Measurements and simple assertions made about a patient, device or other subject.</t>
+  </si>
+  <si>
+    <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+  </si>
+  <si>
+    <t>OBX</t>
+  </si>
+  <si>
+    <t>Observation[classCode=OBS, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msGenderIdentity.response.outcome</t>
+  </si>
+  <si>
     <t>Bundle.entry:msPractitionerRole</t>
   </si>
   <si>
@@ -1779,31 +1911,8 @@
     <t>Bundle.entry:msObsRh.resource</t>
   </si>
   <si>
-    <t>Vital Signs
-MeasurementResultsTests</t>
-  </si>
-  <si>
     <t xml:space="preserve">Observation {http://fhir.nmdp.org/ig/matchsync/StructureDefinition/ms-rhstatus-observation}
 </t>
-  </si>
-  <si>
-    <t>Measurements and simple assertions</t>
-  </si>
-  <si>
-    <t>Measurements and simple assertions made about a patient, device or other subject.</t>
-  </si>
-  <si>
-    <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
-  </si>
-  <si>
-    <t>OBX</t>
-  </si>
-  <si>
-    <t>Observation[classCode=OBS, moodCode=EVN]</t>
   </si>
   <si>
     <t>Bundle.entry:msObsRh.search</t>
@@ -3106,7 +3215,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN513"/>
+  <dimension ref="A1:AN545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3125,7 +3234,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.4140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="100.42578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -17694,7 +17803,7 @@
         <v>76</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>86</v>
@@ -18367,7 +18476,7 @@
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
-        <v>75</v>
+        <v>451</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s" s="2">
@@ -18386,15 +18495,17 @@
         <v>75</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N135" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
         <v>75</v>
@@ -18455,13 +18566,13 @@
         <v>75</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>372</v>
+        <v>456</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>75</v>
@@ -18472,7 +18583,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>288</v>
@@ -18584,7 +18695,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>292</v>
@@ -18696,7 +18807,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>293</v>
@@ -18810,7 +18921,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>294</v>
@@ -18926,7 +19037,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>295</v>
@@ -19040,7 +19151,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>301</v>
@@ -19154,7 +19265,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>306</v>
@@ -19266,7 +19377,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>310</v>
@@ -19378,7 +19489,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>311</v>
@@ -19492,7 +19603,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>312</v>
@@ -19608,7 +19719,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>313</v>
@@ -19720,7 +19831,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>318</v>
@@ -19834,7 +19945,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>322</v>
@@ -19946,7 +20057,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>325</v>
@@ -20058,7 +20169,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>327</v>
@@ -20170,7 +20281,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>330</v>
@@ -20282,7 +20393,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>333</v>
@@ -20394,7 +20505,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>337</v>
@@ -20506,7 +20617,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>338</v>
@@ -20620,7 +20731,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>339</v>
@@ -20736,7 +20847,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>340</v>
@@ -20848,7 +20959,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>343</v>
@@ -20960,7 +21071,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>346</v>
@@ -21074,7 +21185,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>350</v>
@@ -21188,7 +21299,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>354</v>
@@ -21302,13 +21413,13 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>75</v>
@@ -21333,10 +21444,10 @@
         <v>249</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -21416,7 +21527,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>274</v>
@@ -21528,7 +21639,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>275</v>
@@ -21642,7 +21753,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>276</v>
@@ -21758,7 +21869,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>277</v>
@@ -21870,7 +21981,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>280</v>
@@ -21984,7 +22095,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>284</v>
@@ -22010,13 +22121,13 @@
         <v>75</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -22082,10 +22193,10 @@
         <v>372</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>75</v>
@@ -22096,7 +22207,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>288</v>
@@ -22208,7 +22319,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>292</v>
@@ -22320,7 +22431,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>293</v>
@@ -22434,7 +22545,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>294</v>
@@ -22550,7 +22661,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>295</v>
@@ -22664,7 +22775,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>301</v>
@@ -22778,7 +22889,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>306</v>
@@ -22890,7 +23001,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>310</v>
@@ -23002,7 +23113,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>311</v>
@@ -23116,7 +23227,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>312</v>
@@ -23232,7 +23343,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>313</v>
@@ -23344,7 +23455,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>318</v>
@@ -23458,7 +23569,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>322</v>
@@ -23570,7 +23681,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>325</v>
@@ -23682,7 +23793,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>327</v>
@@ -23794,7 +23905,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>330</v>
@@ -23906,7 +24017,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>333</v>
@@ -24018,7 +24129,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>337</v>
@@ -24130,7 +24241,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>338</v>
@@ -24244,7 +24355,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>339</v>
@@ -24360,7 +24471,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>340</v>
@@ -24472,7 +24583,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>343</v>
@@ -24584,7 +24695,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>346</v>
@@ -24698,7 +24809,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>350</v>
@@ -24812,7 +24923,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>354</v>
@@ -24926,13 +25037,13 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>75</v>
@@ -24942,7 +25053,7 @@
         <v>76</v>
       </c>
       <c r="G193" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H193" t="s" s="2">
         <v>86</v>
@@ -24957,10 +25068,10 @@
         <v>249</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
@@ -25040,7 +25151,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>274</v>
@@ -25152,7 +25263,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>275</v>
@@ -25266,7 +25377,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>276</v>
@@ -25382,7 +25493,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>277</v>
@@ -25494,7 +25605,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>280</v>
@@ -25608,7 +25719,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>284</v>
@@ -25634,13 +25745,13 @@
         <v>75</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -25703,13 +25814,13 @@
         <v>75</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>531</v>
+        <v>372</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>532</v>
+        <v>497</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>533</v>
+        <v>498</v>
       </c>
       <c r="AM199" t="s" s="2">
         <v>75</v>
@@ -25720,7 +25831,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>288</v>
@@ -25832,7 +25943,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>292</v>
@@ -25944,7 +26055,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>293</v>
@@ -26058,7 +26169,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>294</v>
@@ -26174,7 +26285,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>295</v>
@@ -26288,7 +26399,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>301</v>
@@ -26402,7 +26513,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>306</v>
@@ -26514,7 +26625,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>310</v>
@@ -26626,7 +26737,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>311</v>
@@ -26740,7 +26851,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>312</v>
@@ -26856,7 +26967,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>313</v>
@@ -26968,7 +27079,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>318</v>
@@ -27082,7 +27193,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>322</v>
@@ -27194,7 +27305,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>325</v>
@@ -27306,7 +27417,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>327</v>
@@ -27418,7 +27529,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>330</v>
@@ -27530,7 +27641,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>333</v>
@@ -27642,7 +27753,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>337</v>
@@ -27754,7 +27865,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>338</v>
@@ -27868,7 +27979,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>339</v>
@@ -27984,7 +28095,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>340</v>
@@ -28096,7 +28207,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>343</v>
@@ -28208,7 +28319,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>346</v>
@@ -28322,7 +28433,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>350</v>
@@ -28436,7 +28547,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>354</v>
@@ -28550,13 +28661,13 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="D225" t="s" s="2">
         <v>75</v>
@@ -28581,10 +28692,10 @@
         <v>249</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" s="2"/>
@@ -28664,7 +28775,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>274</v>
@@ -28776,7 +28887,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>275</v>
@@ -28890,7 +29001,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>276</v>
@@ -29006,7 +29117,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>277</v>
@@ -29118,7 +29229,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>280</v>
@@ -29232,14 +29343,14 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
-        <v>569</v>
+        <v>75</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" t="s" s="2">
@@ -29258,17 +29369,15 @@
         <v>75</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N231" t="s" s="2">
         <v>573</v>
       </c>
+      <c r="N231" s="2"/>
       <c r="O231" s="2"/>
       <c r="P231" t="s" s="2">
         <v>75</v>
@@ -32865,7 +32974,7 @@
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
-        <v>569</v>
+        <v>451</v>
       </c>
       <c r="E263" s="2"/>
       <c r="F263" t="s" s="2">
@@ -32887,13 +32996,13 @@
         <v>612</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>571</v>
+        <v>453</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>572</v>
+        <v>454</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>573</v>
+        <v>455</v>
       </c>
       <c r="O263" s="2"/>
       <c r="P263" t="s" s="2">
@@ -32955,13 +33064,13 @@
         <v>75</v>
       </c>
       <c r="AJ263" t="s" s="2">
-        <v>574</v>
+        <v>456</v>
       </c>
       <c r="AK263" t="s" s="2">
-        <v>575</v>
+        <v>457</v>
       </c>
       <c r="AL263" t="s" s="2">
-        <v>576</v>
+        <v>458</v>
       </c>
       <c r="AM263" t="s" s="2">
         <v>75</v>
@@ -36284,7 +36393,7 @@
         <v>86</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L293" t="s" s="2">
         <v>278</v>
@@ -36491,7 +36600,7 @@
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
-        <v>569</v>
+        <v>451</v>
       </c>
       <c r="E295" s="2"/>
       <c r="F295" t="s" s="2">
@@ -36513,13 +36622,13 @@
         <v>648</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>571</v>
+        <v>453</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>572</v>
+        <v>454</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>573</v>
+        <v>455</v>
       </c>
       <c r="O295" s="2"/>
       <c r="P295" t="s" s="2">
@@ -36581,13 +36690,13 @@
         <v>75</v>
       </c>
       <c r="AJ295" t="s" s="2">
-        <v>574</v>
+        <v>456</v>
       </c>
       <c r="AK295" t="s" s="2">
-        <v>575</v>
+        <v>457</v>
       </c>
       <c r="AL295" t="s" s="2">
-        <v>576</v>
+        <v>458</v>
       </c>
       <c r="AM295" t="s" s="2">
         <v>75</v>
@@ -40117,7 +40226,7 @@
       </c>
       <c r="C327" s="2"/>
       <c r="D327" t="s" s="2">
-        <v>569</v>
+        <v>451</v>
       </c>
       <c r="E327" s="2"/>
       <c r="F327" t="s" s="2">
@@ -40139,13 +40248,13 @@
         <v>684</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>571</v>
+        <v>453</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>572</v>
+        <v>454</v>
       </c>
       <c r="N327" t="s" s="2">
-        <v>573</v>
+        <v>455</v>
       </c>
       <c r="O327" s="2"/>
       <c r="P327" t="s" s="2">
@@ -40207,13 +40316,13 @@
         <v>75</v>
       </c>
       <c r="AJ327" t="s" s="2">
-        <v>574</v>
+        <v>456</v>
       </c>
       <c r="AK327" t="s" s="2">
-        <v>575</v>
+        <v>457</v>
       </c>
       <c r="AL327" t="s" s="2">
-        <v>576</v>
+        <v>458</v>
       </c>
       <c r="AM327" t="s" s="2">
         <v>75</v>
@@ -43088,7 +43197,7 @@
         <v>712</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="N353" s="2"/>
       <c r="O353" s="2"/>
@@ -43168,7 +43277,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>274</v>
@@ -43280,7 +43389,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>275</v>
@@ -43394,7 +43503,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>276</v>
@@ -43510,7 +43619,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>277</v>
@@ -43622,7 +43731,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>280</v>
@@ -43736,14 +43845,14 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" t="s" s="2">
-        <v>569</v>
+        <v>451</v>
       </c>
       <c r="E359" s="2"/>
       <c r="F359" t="s" s="2">
@@ -43762,16 +43871,16 @@
         <v>75</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>571</v>
+        <v>453</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>572</v>
+        <v>454</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>573</v>
+        <v>455</v>
       </c>
       <c r="O359" s="2"/>
       <c r="P359" t="s" s="2">
@@ -43833,13 +43942,13 @@
         <v>75</v>
       </c>
       <c r="AJ359" t="s" s="2">
-        <v>574</v>
+        <v>456</v>
       </c>
       <c r="AK359" t="s" s="2">
-        <v>575</v>
+        <v>457</v>
       </c>
       <c r="AL359" t="s" s="2">
-        <v>576</v>
+        <v>458</v>
       </c>
       <c r="AM359" t="s" s="2">
         <v>75</v>
@@ -43850,7 +43959,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>288</v>
@@ -43962,7 +44071,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>292</v>
@@ -44074,7 +44183,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>293</v>
@@ -44188,7 +44297,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>294</v>
@@ -44304,7 +44413,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>295</v>
@@ -44418,7 +44527,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>301</v>
@@ -44532,7 +44641,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>306</v>
@@ -44644,7 +44753,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>310</v>
@@ -44756,7 +44865,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>311</v>
@@ -44870,7 +44979,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>312</v>
@@ -44986,7 +45095,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>313</v>
@@ -45098,7 +45207,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>318</v>
@@ -45212,7 +45321,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>322</v>
@@ -45324,7 +45433,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>325</v>
@@ -45436,7 +45545,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>327</v>
@@ -45548,7 +45657,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>330</v>
@@ -45660,7 +45769,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>333</v>
@@ -45772,7 +45881,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>337</v>
@@ -45884,7 +45993,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>338</v>
@@ -45998,7 +46107,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>339</v>
@@ -46114,7 +46223,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>340</v>
@@ -46226,7 +46335,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>343</v>
@@ -46338,7 +46447,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>346</v>
@@ -46452,7 +46561,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>350</v>
@@ -46566,7 +46675,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>354</v>
@@ -46680,13 +46789,13 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D385" t="s" s="2">
         <v>75</v>
@@ -46711,7 +46820,7 @@
         <v>249</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="M385" t="s" s="2">
         <v>748</v>
@@ -47369,7 +47478,7 @@
       </c>
       <c r="C391" s="2"/>
       <c r="D391" t="s" s="2">
-        <v>569</v>
+        <v>451</v>
       </c>
       <c r="E391" s="2"/>
       <c r="F391" t="s" s="2">
@@ -47391,13 +47500,13 @@
         <v>755</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>756</v>
+        <v>453</v>
       </c>
       <c r="M391" t="s" s="2">
-        <v>757</v>
+        <v>454</v>
       </c>
       <c r="N391" t="s" s="2">
-        <v>573</v>
+        <v>455</v>
       </c>
       <c r="O391" s="2"/>
       <c r="P391" t="s" s="2">
@@ -47459,13 +47568,13 @@
         <v>75</v>
       </c>
       <c r="AJ391" t="s" s="2">
-        <v>758</v>
+        <v>456</v>
       </c>
       <c r="AK391" t="s" s="2">
-        <v>575</v>
+        <v>457</v>
       </c>
       <c r="AL391" t="s" s="2">
-        <v>576</v>
+        <v>458</v>
       </c>
       <c r="AM391" t="s" s="2">
         <v>75</v>
@@ -47476,7 +47585,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>288</v>
@@ -47588,7 +47697,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>292</v>
@@ -47700,7 +47809,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>293</v>
@@ -47814,7 +47923,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B395" t="s" s="2">
         <v>294</v>
@@ -47930,7 +48039,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B396" t="s" s="2">
         <v>295</v>
@@ -48044,7 +48153,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B397" t="s" s="2">
         <v>301</v>
@@ -48158,7 +48267,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>306</v>
@@ -48270,7 +48379,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>310</v>
@@ -48382,7 +48491,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>311</v>
@@ -48496,7 +48605,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B401" t="s" s="2">
         <v>312</v>
@@ -48612,7 +48721,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B402" t="s" s="2">
         <v>313</v>
@@ -48724,7 +48833,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B403" t="s" s="2">
         <v>318</v>
@@ -48838,7 +48947,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B404" t="s" s="2">
         <v>322</v>
@@ -48950,7 +49059,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B405" t="s" s="2">
         <v>325</v>
@@ -49062,7 +49171,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B406" t="s" s="2">
         <v>327</v>
@@ -49174,7 +49283,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B407" t="s" s="2">
         <v>330</v>
@@ -49286,7 +49395,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>333</v>
@@ -49398,7 +49507,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B409" t="s" s="2">
         <v>337</v>
@@ -49510,7 +49619,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>338</v>
@@ -49624,7 +49733,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B411" t="s" s="2">
         <v>339</v>
@@ -49740,7 +49849,7 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>340</v>
@@ -49852,7 +49961,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>343</v>
@@ -49964,7 +50073,7 @@
     </row>
     <row r="414" hidden="true">
       <c r="A414" t="s" s="2">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B414" t="s" s="2">
         <v>346</v>
@@ -50078,7 +50187,7 @@
     </row>
     <row r="415" hidden="true">
       <c r="A415" t="s" s="2">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B415" t="s" s="2">
         <v>350</v>
@@ -50192,7 +50301,7 @@
     </row>
     <row r="416" hidden="true">
       <c r="A416" t="s" s="2">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B416" t="s" s="2">
         <v>354</v>
@@ -50306,13 +50415,13 @@
     </row>
     <row r="417" hidden="true">
       <c r="A417" t="s" s="2">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B417" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D417" t="s" s="2">
         <v>75</v>
@@ -50337,10 +50446,10 @@
         <v>249</v>
       </c>
       <c r="L417" t="s" s="2">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="M417" t="s" s="2">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="N417" s="2"/>
       <c r="O417" s="2"/>
@@ -50420,7 +50529,7 @@
     </row>
     <row r="418" hidden="true">
       <c r="A418" t="s" s="2">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B418" t="s" s="2">
         <v>274</v>
@@ -50532,7 +50641,7 @@
     </row>
     <row r="419" hidden="true">
       <c r="A419" t="s" s="2">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B419" t="s" s="2">
         <v>275</v>
@@ -50646,7 +50755,7 @@
     </row>
     <row r="420" hidden="true">
       <c r="A420" t="s" s="2">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B420" t="s" s="2">
         <v>276</v>
@@ -50762,7 +50871,7 @@
     </row>
     <row r="421" hidden="true">
       <c r="A421" t="s" s="2">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B421" t="s" s="2">
         <v>277</v>
@@ -50874,7 +50983,7 @@
     </row>
     <row r="422" hidden="true">
       <c r="A422" t="s" s="2">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B422" t="s" s="2">
         <v>280</v>
@@ -50988,14 +51097,14 @@
     </row>
     <row r="423" hidden="true">
       <c r="A423" t="s" s="2">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B423" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C423" s="2"/>
       <c r="D423" t="s" s="2">
-        <v>569</v>
+        <v>451</v>
       </c>
       <c r="E423" s="2"/>
       <c r="F423" t="s" s="2">
@@ -51014,16 +51123,16 @@
         <v>75</v>
       </c>
       <c r="K423" t="s" s="2">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="L423" t="s" s="2">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="M423" t="s" s="2">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="N423" t="s" s="2">
-        <v>573</v>
+        <v>455</v>
       </c>
       <c r="O423" s="2"/>
       <c r="P423" t="s" s="2">
@@ -51085,13 +51194,13 @@
         <v>75</v>
       </c>
       <c r="AJ423" t="s" s="2">
-        <v>758</v>
+        <v>794</v>
       </c>
       <c r="AK423" t="s" s="2">
-        <v>575</v>
+        <v>457</v>
       </c>
       <c r="AL423" t="s" s="2">
-        <v>576</v>
+        <v>458</v>
       </c>
       <c r="AM423" t="s" s="2">
         <v>75</v>
@@ -51102,7 +51211,7 @@
     </row>
     <row r="424" hidden="true">
       <c r="A424" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B424" t="s" s="2">
         <v>288</v>
@@ -51214,7 +51323,7 @@
     </row>
     <row r="425" hidden="true">
       <c r="A425" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B425" t="s" s="2">
         <v>292</v>
@@ -51326,7 +51435,7 @@
     </row>
     <row r="426" hidden="true">
       <c r="A426" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B426" t="s" s="2">
         <v>293</v>
@@ -51440,7 +51549,7 @@
     </row>
     <row r="427" hidden="true">
       <c r="A427" t="s" s="2">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B427" t="s" s="2">
         <v>294</v>
@@ -51556,7 +51665,7 @@
     </row>
     <row r="428" hidden="true">
       <c r="A428" t="s" s="2">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B428" t="s" s="2">
         <v>295</v>
@@ -51670,7 +51779,7 @@
     </row>
     <row r="429" hidden="true">
       <c r="A429" t="s" s="2">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B429" t="s" s="2">
         <v>301</v>
@@ -51784,7 +51893,7 @@
     </row>
     <row r="430" hidden="true">
       <c r="A430" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B430" t="s" s="2">
         <v>306</v>
@@ -51896,7 +52005,7 @@
     </row>
     <row r="431" hidden="true">
       <c r="A431" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B431" t="s" s="2">
         <v>310</v>
@@ -52008,7 +52117,7 @@
     </row>
     <row r="432" hidden="true">
       <c r="A432" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B432" t="s" s="2">
         <v>311</v>
@@ -52122,7 +52231,7 @@
     </row>
     <row r="433" hidden="true">
       <c r="A433" t="s" s="2">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B433" t="s" s="2">
         <v>312</v>
@@ -52238,7 +52347,7 @@
     </row>
     <row r="434" hidden="true">
       <c r="A434" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B434" t="s" s="2">
         <v>313</v>
@@ -52350,7 +52459,7 @@
     </row>
     <row r="435" hidden="true">
       <c r="A435" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B435" t="s" s="2">
         <v>318</v>
@@ -52464,7 +52573,7 @@
     </row>
     <row r="436" hidden="true">
       <c r="A436" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B436" t="s" s="2">
         <v>322</v>
@@ -52576,7 +52685,7 @@
     </row>
     <row r="437" hidden="true">
       <c r="A437" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B437" t="s" s="2">
         <v>325</v>
@@ -52688,7 +52797,7 @@
     </row>
     <row r="438" hidden="true">
       <c r="A438" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B438" t="s" s="2">
         <v>327</v>
@@ -52800,7 +52909,7 @@
     </row>
     <row r="439" hidden="true">
       <c r="A439" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B439" t="s" s="2">
         <v>330</v>
@@ -52912,7 +53021,7 @@
     </row>
     <row r="440" hidden="true">
       <c r="A440" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B440" t="s" s="2">
         <v>333</v>
@@ -53024,7 +53133,7 @@
     </row>
     <row r="441" hidden="true">
       <c r="A441" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B441" t="s" s="2">
         <v>337</v>
@@ -53136,7 +53245,7 @@
     </row>
     <row r="442" hidden="true">
       <c r="A442" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B442" t="s" s="2">
         <v>338</v>
@@ -53250,7 +53359,7 @@
     </row>
     <row r="443" hidden="true">
       <c r="A443" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B443" t="s" s="2">
         <v>339</v>
@@ -53366,7 +53475,7 @@
     </row>
     <row r="444" hidden="true">
       <c r="A444" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B444" t="s" s="2">
         <v>340</v>
@@ -53478,7 +53587,7 @@
     </row>
     <row r="445" hidden="true">
       <c r="A445" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B445" t="s" s="2">
         <v>343</v>
@@ -53590,7 +53699,7 @@
     </row>
     <row r="446" hidden="true">
       <c r="A446" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B446" t="s" s="2">
         <v>346</v>
@@ -53704,7 +53813,7 @@
     </row>
     <row r="447" hidden="true">
       <c r="A447" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B447" t="s" s="2">
         <v>350</v>
@@ -53818,7 +53927,7 @@
     </row>
     <row r="448" hidden="true">
       <c r="A448" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B448" t="s" s="2">
         <v>354</v>
@@ -53932,13 +54041,13 @@
     </row>
     <row r="449" hidden="true">
       <c r="A449" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B449" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C449" t="s" s="2">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D449" t="s" s="2">
         <v>75</v>
@@ -53963,10 +54072,10 @@
         <v>249</v>
       </c>
       <c r="L449" t="s" s="2">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="M449" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="N449" s="2"/>
       <c r="O449" s="2"/>
@@ -54046,7 +54155,7 @@
     </row>
     <row r="450" hidden="true">
       <c r="A450" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B450" t="s" s="2">
         <v>274</v>
@@ -54158,7 +54267,7 @@
     </row>
     <row r="451" hidden="true">
       <c r="A451" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B451" t="s" s="2">
         <v>275</v>
@@ -54272,7 +54381,7 @@
     </row>
     <row r="452" hidden="true">
       <c r="A452" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B452" t="s" s="2">
         <v>276</v>
@@ -54388,7 +54497,7 @@
     </row>
     <row r="453" hidden="true">
       <c r="A453" t="s" s="2">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B453" t="s" s="2">
         <v>277</v>
@@ -54500,7 +54609,7 @@
     </row>
     <row r="454" hidden="true">
       <c r="A454" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B454" t="s" s="2">
         <v>280</v>
@@ -54614,14 +54723,14 @@
     </row>
     <row r="455" hidden="true">
       <c r="A455" t="s" s="2">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B455" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C455" s="2"/>
       <c r="D455" t="s" s="2">
-        <v>75</v>
+        <v>451</v>
       </c>
       <c r="E455" s="2"/>
       <c r="F455" t="s" s="2">
@@ -54640,15 +54749,17 @@
         <v>75</v>
       </c>
       <c r="K455" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="L455" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="M455" t="s" s="2">
         <v>832</v>
       </c>
-      <c r="L455" t="s" s="2">
-        <v>833</v>
-      </c>
-      <c r="M455" t="s" s="2">
-        <v>834</v>
-      </c>
-      <c r="N455" s="2"/>
+      <c r="N455" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="O455" s="2"/>
       <c r="P455" t="s" s="2">
         <v>75</v>
@@ -54709,13 +54820,13 @@
         <v>75</v>
       </c>
       <c r="AJ455" t="s" s="2">
-        <v>372</v>
+        <v>794</v>
       </c>
       <c r="AK455" t="s" s="2">
-        <v>75</v>
+        <v>457</v>
       </c>
       <c r="AL455" t="s" s="2">
-        <v>835</v>
+        <v>458</v>
       </c>
       <c r="AM455" t="s" s="2">
         <v>75</v>
@@ -54726,7 +54837,7 @@
     </row>
     <row r="456" hidden="true">
       <c r="A456" t="s" s="2">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B456" t="s" s="2">
         <v>288</v>
@@ -54838,7 +54949,7 @@
     </row>
     <row r="457" hidden="true">
       <c r="A457" t="s" s="2">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B457" t="s" s="2">
         <v>292</v>
@@ -54950,7 +55061,7 @@
     </row>
     <row r="458" hidden="true">
       <c r="A458" t="s" s="2">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B458" t="s" s="2">
         <v>293</v>
@@ -55064,7 +55175,7 @@
     </row>
     <row r="459" hidden="true">
       <c r="A459" t="s" s="2">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B459" t="s" s="2">
         <v>294</v>
@@ -55180,7 +55291,7 @@
     </row>
     <row r="460" hidden="true">
       <c r="A460" t="s" s="2">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B460" t="s" s="2">
         <v>295</v>
@@ -55294,7 +55405,7 @@
     </row>
     <row r="461" hidden="true">
       <c r="A461" t="s" s="2">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B461" t="s" s="2">
         <v>301</v>
@@ -55408,7 +55519,7 @@
     </row>
     <row r="462" hidden="true">
       <c r="A462" t="s" s="2">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B462" t="s" s="2">
         <v>306</v>
@@ -55520,7 +55631,7 @@
     </row>
     <row r="463" hidden="true">
       <c r="A463" t="s" s="2">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B463" t="s" s="2">
         <v>310</v>
@@ -55632,7 +55743,7 @@
     </row>
     <row r="464" hidden="true">
       <c r="A464" t="s" s="2">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B464" t="s" s="2">
         <v>311</v>
@@ -55746,7 +55857,7 @@
     </row>
     <row r="465" hidden="true">
       <c r="A465" t="s" s="2">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B465" t="s" s="2">
         <v>312</v>
@@ -55862,7 +55973,7 @@
     </row>
     <row r="466" hidden="true">
       <c r="A466" t="s" s="2">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B466" t="s" s="2">
         <v>313</v>
@@ -55974,7 +56085,7 @@
     </row>
     <row r="467" hidden="true">
       <c r="A467" t="s" s="2">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B467" t="s" s="2">
         <v>318</v>
@@ -56088,7 +56199,7 @@
     </row>
     <row r="468" hidden="true">
       <c r="A468" t="s" s="2">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B468" t="s" s="2">
         <v>322</v>
@@ -56200,7 +56311,7 @@
     </row>
     <row r="469" hidden="true">
       <c r="A469" t="s" s="2">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B469" t="s" s="2">
         <v>325</v>
@@ -56312,7 +56423,7 @@
     </row>
     <row r="470" hidden="true">
       <c r="A470" t="s" s="2">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B470" t="s" s="2">
         <v>327</v>
@@ -56424,7 +56535,7 @@
     </row>
     <row r="471" hidden="true">
       <c r="A471" t="s" s="2">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B471" t="s" s="2">
         <v>330</v>
@@ -56536,7 +56647,7 @@
     </row>
     <row r="472" hidden="true">
       <c r="A472" t="s" s="2">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B472" t="s" s="2">
         <v>333</v>
@@ -56648,7 +56759,7 @@
     </row>
     <row r="473" hidden="true">
       <c r="A473" t="s" s="2">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B473" t="s" s="2">
         <v>337</v>
@@ -56760,7 +56871,7 @@
     </row>
     <row r="474" hidden="true">
       <c r="A474" t="s" s="2">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B474" t="s" s="2">
         <v>338</v>
@@ -56874,7 +56985,7 @@
     </row>
     <row r="475" hidden="true">
       <c r="A475" t="s" s="2">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B475" t="s" s="2">
         <v>339</v>
@@ -56990,7 +57101,7 @@
     </row>
     <row r="476" hidden="true">
       <c r="A476" t="s" s="2">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B476" t="s" s="2">
         <v>340</v>
@@ -57102,7 +57213,7 @@
     </row>
     <row r="477" hidden="true">
       <c r="A477" t="s" s="2">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B477" t="s" s="2">
         <v>343</v>
@@ -57214,7 +57325,7 @@
     </row>
     <row r="478" hidden="true">
       <c r="A478" t="s" s="2">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B478" t="s" s="2">
         <v>346</v>
@@ -57328,7 +57439,7 @@
     </row>
     <row r="479" hidden="true">
       <c r="A479" t="s" s="2">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B479" t="s" s="2">
         <v>350</v>
@@ -57442,7 +57553,7 @@
     </row>
     <row r="480" hidden="true">
       <c r="A480" t="s" s="2">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B480" t="s" s="2">
         <v>354</v>
@@ -57556,20 +57667,20 @@
     </row>
     <row r="481" hidden="true">
       <c r="A481" t="s" s="2">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B481" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C481" t="s" s="2">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D481" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E481" s="2"/>
       <c r="F481" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G481" t="s" s="2">
         <v>85</v>
@@ -57587,10 +57698,10 @@
         <v>249</v>
       </c>
       <c r="L481" t="s" s="2">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="M481" t="s" s="2">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="N481" s="2"/>
       <c r="O481" s="2"/>
@@ -57670,7 +57781,7 @@
     </row>
     <row r="482" hidden="true">
       <c r="A482" t="s" s="2">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B482" t="s" s="2">
         <v>274</v>
@@ -57782,7 +57893,7 @@
     </row>
     <row r="483" hidden="true">
       <c r="A483" t="s" s="2">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B483" t="s" s="2">
         <v>275</v>
@@ -57896,7 +58007,7 @@
     </row>
     <row r="484" hidden="true">
       <c r="A484" t="s" s="2">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B484" t="s" s="2">
         <v>276</v>
@@ -58012,7 +58123,7 @@
     </row>
     <row r="485" hidden="true">
       <c r="A485" t="s" s="2">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B485" t="s" s="2">
         <v>277</v>
@@ -58124,7 +58235,7 @@
     </row>
     <row r="486" hidden="true">
       <c r="A486" t="s" s="2">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B486" t="s" s="2">
         <v>280</v>
@@ -58238,14 +58349,14 @@
     </row>
     <row r="487" hidden="true">
       <c r="A487" t="s" s="2">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B487" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C487" s="2"/>
       <c r="D487" t="s" s="2">
-        <v>569</v>
+        <v>75</v>
       </c>
       <c r="E487" s="2"/>
       <c r="F487" t="s" s="2">
@@ -58255,7 +58366,7 @@
         <v>85</v>
       </c>
       <c r="H487" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I487" t="s" s="2">
         <v>75</v>
@@ -58264,17 +58375,15 @@
         <v>75</v>
       </c>
       <c r="K487" t="s" s="2">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="L487" t="s" s="2">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="M487" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N487" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>870</v>
+      </c>
+      <c r="N487" s="2"/>
       <c r="O487" s="2"/>
       <c r="P487" t="s" s="2">
         <v>75</v>
@@ -58335,13 +58444,13 @@
         <v>75</v>
       </c>
       <c r="AJ487" t="s" s="2">
-        <v>574</v>
+        <v>372</v>
       </c>
       <c r="AK487" t="s" s="2">
-        <v>575</v>
+        <v>75</v>
       </c>
       <c r="AL487" t="s" s="2">
-        <v>576</v>
+        <v>871</v>
       </c>
       <c r="AM487" t="s" s="2">
         <v>75</v>
@@ -58352,7 +58461,7 @@
     </row>
     <row r="488" hidden="true">
       <c r="A488" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B488" t="s" s="2">
         <v>288</v>
@@ -58464,7 +58573,7 @@
     </row>
     <row r="489" hidden="true">
       <c r="A489" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B489" t="s" s="2">
         <v>292</v>
@@ -58576,7 +58685,7 @@
     </row>
     <row r="490" hidden="true">
       <c r="A490" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B490" t="s" s="2">
         <v>293</v>
@@ -58690,7 +58799,7 @@
     </row>
     <row r="491" hidden="true">
       <c r="A491" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B491" t="s" s="2">
         <v>294</v>
@@ -58806,7 +58915,7 @@
     </row>
     <row r="492" hidden="true">
       <c r="A492" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B492" t="s" s="2">
         <v>295</v>
@@ -58920,7 +59029,7 @@
     </row>
     <row r="493" hidden="true">
       <c r="A493" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B493" t="s" s="2">
         <v>301</v>
@@ -59034,7 +59143,7 @@
     </row>
     <row r="494" hidden="true">
       <c r="A494" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B494" t="s" s="2">
         <v>306</v>
@@ -59146,7 +59255,7 @@
     </row>
     <row r="495" hidden="true">
       <c r="A495" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B495" t="s" s="2">
         <v>310</v>
@@ -59258,7 +59367,7 @@
     </row>
     <row r="496" hidden="true">
       <c r="A496" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B496" t="s" s="2">
         <v>311</v>
@@ -59372,7 +59481,7 @@
     </row>
     <row r="497" hidden="true">
       <c r="A497" t="s" s="2">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B497" t="s" s="2">
         <v>312</v>
@@ -59488,7 +59597,7 @@
     </row>
     <row r="498" hidden="true">
       <c r="A498" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B498" t="s" s="2">
         <v>313</v>
@@ -59600,7 +59709,7 @@
     </row>
     <row r="499" hidden="true">
       <c r="A499" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B499" t="s" s="2">
         <v>318</v>
@@ -59714,7 +59823,7 @@
     </row>
     <row r="500" hidden="true">
       <c r="A500" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B500" t="s" s="2">
         <v>322</v>
@@ -59826,7 +59935,7 @@
     </row>
     <row r="501" hidden="true">
       <c r="A501" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B501" t="s" s="2">
         <v>325</v>
@@ -59938,7 +60047,7 @@
     </row>
     <row r="502" hidden="true">
       <c r="A502" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B502" t="s" s="2">
         <v>327</v>
@@ -60050,7 +60159,7 @@
     </row>
     <row r="503" hidden="true">
       <c r="A503" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B503" t="s" s="2">
         <v>330</v>
@@ -60162,7 +60271,7 @@
     </row>
     <row r="504" hidden="true">
       <c r="A504" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B504" t="s" s="2">
         <v>333</v>
@@ -60274,7 +60383,7 @@
     </row>
     <row r="505" hidden="true">
       <c r="A505" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B505" t="s" s="2">
         <v>337</v>
@@ -60386,7 +60495,7 @@
     </row>
     <row r="506" hidden="true">
       <c r="A506" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B506" t="s" s="2">
         <v>338</v>
@@ -60500,7 +60609,7 @@
     </row>
     <row r="507" hidden="true">
       <c r="A507" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B507" t="s" s="2">
         <v>339</v>
@@ -60616,7 +60725,7 @@
     </row>
     <row r="508" hidden="true">
       <c r="A508" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B508" t="s" s="2">
         <v>340</v>
@@ -60728,7 +60837,7 @@
     </row>
     <row r="509" hidden="true">
       <c r="A509" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B509" t="s" s="2">
         <v>343</v>
@@ -60840,7 +60949,7 @@
     </row>
     <row r="510" hidden="true">
       <c r="A510" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B510" t="s" s="2">
         <v>346</v>
@@ -60954,7 +61063,7 @@
     </row>
     <row r="511" hidden="true">
       <c r="A511" t="s" s="2">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B511" t="s" s="2">
         <v>350</v>
@@ -61068,7 +61177,7 @@
     </row>
     <row r="512" hidden="true">
       <c r="A512" t="s" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B512" t="s" s="2">
         <v>354</v>
@@ -61182,24 +61291,26 @@
     </row>
     <row r="513" hidden="true">
       <c r="A513" t="s" s="2">
+        <v>897</v>
+      </c>
+      <c r="B513" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="C513" t="s" s="2">
         <v>898</v>
       </c>
-      <c r="B513" t="s" s="2">
-        <v>898</v>
-      </c>
-      <c r="C513" s="2"/>
       <c r="D513" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E513" s="2"/>
       <c r="F513" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G513" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H513" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I513" t="s" s="2">
         <v>75</v>
@@ -61208,20 +61319,16 @@
         <v>86</v>
       </c>
       <c r="K513" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L513" t="s" s="2">
         <v>899</v>
       </c>
-      <c r="L513" t="s" s="2">
+      <c r="M513" t="s" s="2">
         <v>900</v>
       </c>
-      <c r="M513" t="s" s="2">
-        <v>901</v>
-      </c>
-      <c r="N513" t="s" s="2">
-        <v>902</v>
-      </c>
-      <c r="O513" t="s" s="2">
-        <v>903</v>
-      </c>
+      <c r="N513" s="2"/>
+      <c r="O513" s="2"/>
       <c r="P513" t="s" s="2">
         <v>75</v>
       </c>
@@ -61269,35 +61376,3663 @@
         <v>75</v>
       </c>
       <c r="AF513" t="s" s="2">
-        <v>898</v>
+        <v>267</v>
       </c>
       <c r="AG513" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH513" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI513" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ513" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AK513" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL513" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM513" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN513" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="514" hidden="true">
+      <c r="A514" t="s" s="2">
+        <v>901</v>
+      </c>
+      <c r="B514" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C514" s="2"/>
+      <c r="D514" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E514" s="2"/>
+      <c r="F514" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G514" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H514" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I514" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J514" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K514" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L514" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M514" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N514" s="2"/>
+      <c r="O514" s="2"/>
+      <c r="P514" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q514" s="2"/>
+      <c r="R514" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S514" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T514" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U514" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V514" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W514" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X514" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y514" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z514" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA514" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB514" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC514" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD514" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE514" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF514" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG514" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH514" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI514" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ514" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK514" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL514" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AM514" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN514" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="515" hidden="true">
+      <c r="A515" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="B515" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="C515" s="2"/>
+      <c r="D515" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E515" s="2"/>
+      <c r="F515" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G515" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H515" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I515" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J515" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K515" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L515" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M515" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N515" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O515" s="2"/>
+      <c r="P515" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q515" s="2"/>
+      <c r="R515" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S515" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T515" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U515" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V515" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W515" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X515" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y515" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z515" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA515" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB515" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC515" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD515" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE515" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF515" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AG515" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH515" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI515" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ515" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK515" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL515" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AM515" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN515" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="516" hidden="true">
+      <c r="A516" t="s" s="2">
+        <v>903</v>
+      </c>
+      <c r="B516" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="C516" s="2"/>
+      <c r="D516" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="E516" s="2"/>
+      <c r="F516" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G516" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H516" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I516" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J516" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K516" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L516" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M516" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N516" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O516" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="P516" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q516" s="2"/>
+      <c r="R516" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S516" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T516" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U516" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V516" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W516" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X516" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y516" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z516" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA516" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB516" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC516" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD516" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE516" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF516" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AG516" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH516" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI516" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ516" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK516" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL516" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM516" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN516" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="517" hidden="true">
+      <c r="A517" t="s" s="2">
+        <v>904</v>
+      </c>
+      <c r="B517" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="C517" s="2"/>
+      <c r="D517" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E517" s="2"/>
+      <c r="F517" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G517" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H517" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I517" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J517" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K517" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L517" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M517" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N517" s="2"/>
+      <c r="O517" s="2"/>
+      <c r="P517" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q517" s="2"/>
+      <c r="R517" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S517" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T517" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U517" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V517" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W517" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X517" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y517" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z517" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA517" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB517" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC517" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD517" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE517" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF517" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AG517" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH517" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI517" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ517" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AK513" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL513" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM513" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN513" t="s" s="2">
+      <c r="AK517" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL517" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM517" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN517" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="518" hidden="true">
+      <c r="A518" t="s" s="2">
+        <v>905</v>
+      </c>
+      <c r="B518" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="C518" s="2"/>
+      <c r="D518" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E518" s="2"/>
+      <c r="F518" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G518" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H518" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I518" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J518" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K518" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L518" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M518" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N518" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O518" s="2"/>
+      <c r="P518" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q518" s="2"/>
+      <c r="R518" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S518" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T518" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U518" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V518" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W518" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X518" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y518" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z518" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA518" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB518" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC518" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD518" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE518" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF518" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AG518" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH518" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI518" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ518" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK518" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL518" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM518" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN518" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="519" hidden="true">
+      <c r="A519" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="B519" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="C519" s="2"/>
+      <c r="D519" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="E519" s="2"/>
+      <c r="F519" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G519" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H519" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I519" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J519" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K519" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="L519" t="s" s="2">
+        <v>908</v>
+      </c>
+      <c r="M519" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N519" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="O519" s="2"/>
+      <c r="P519" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q519" s="2"/>
+      <c r="R519" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S519" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T519" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U519" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V519" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W519" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X519" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y519" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z519" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA519" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB519" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC519" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD519" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE519" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF519" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AG519" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH519" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI519" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ519" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AK519" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AL519" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AM519" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN519" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="520" hidden="true">
+      <c r="A520" t="s" s="2">
+        <v>909</v>
+      </c>
+      <c r="B520" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="C520" s="2"/>
+      <c r="D520" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E520" s="2"/>
+      <c r="F520" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G520" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H520" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I520" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J520" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K520" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L520" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M520" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N520" s="2"/>
+      <c r="O520" s="2"/>
+      <c r="P520" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q520" s="2"/>
+      <c r="R520" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S520" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T520" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U520" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V520" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W520" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X520" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y520" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z520" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA520" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB520" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC520" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD520" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE520" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF520" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AG520" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH520" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI520" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AJ520" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK520" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL520" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM520" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN520" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="521" hidden="true">
+      <c r="A521" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="B521" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="C521" s="2"/>
+      <c r="D521" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E521" s="2"/>
+      <c r="F521" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G521" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H521" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I521" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J521" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K521" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L521" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M521" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N521" s="2"/>
+      <c r="O521" s="2"/>
+      <c r="P521" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q521" s="2"/>
+      <c r="R521" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S521" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T521" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U521" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V521" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W521" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X521" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y521" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z521" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA521" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB521" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC521" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD521" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE521" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF521" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG521" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH521" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI521" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ521" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK521" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL521" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AM521" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN521" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="522" hidden="true">
+      <c r="A522" t="s" s="2">
+        <v>911</v>
+      </c>
+      <c r="B522" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="C522" s="2"/>
+      <c r="D522" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E522" s="2"/>
+      <c r="F522" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G522" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H522" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I522" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J522" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K522" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L522" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M522" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N522" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O522" s="2"/>
+      <c r="P522" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q522" s="2"/>
+      <c r="R522" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S522" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T522" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U522" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V522" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W522" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X522" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y522" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z522" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA522" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB522" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC522" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD522" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE522" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF522" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AG522" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH522" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI522" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ522" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK522" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL522" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AM522" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN522" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="523" hidden="true">
+      <c r="A523" t="s" s="2">
+        <v>912</v>
+      </c>
+      <c r="B523" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="C523" s="2"/>
+      <c r="D523" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="E523" s="2"/>
+      <c r="F523" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G523" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H523" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I523" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J523" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K523" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L523" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M523" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N523" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O523" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="P523" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q523" s="2"/>
+      <c r="R523" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S523" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T523" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U523" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V523" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W523" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X523" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y523" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z523" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA523" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB523" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC523" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD523" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE523" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF523" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AG523" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH523" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI523" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ523" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK523" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL523" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM523" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN523" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="524" hidden="true">
+      <c r="A524" t="s" s="2">
+        <v>913</v>
+      </c>
+      <c r="B524" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="C524" s="2"/>
+      <c r="D524" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E524" s="2"/>
+      <c r="F524" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G524" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H524" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I524" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J524" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K524" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L524" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M524" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N524" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O524" s="2"/>
+      <c r="P524" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q524" s="2"/>
+      <c r="R524" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S524" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T524" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U524" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V524" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W524" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X524" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Y524" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="Z524" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AA524" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB524" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC524" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD524" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE524" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF524" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AG524" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH524" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI524" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ524" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK524" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL524" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM524" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN524" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="525" hidden="true">
+      <c r="A525" t="s" s="2">
+        <v>914</v>
+      </c>
+      <c r="B525" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="C525" s="2"/>
+      <c r="D525" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E525" s="2"/>
+      <c r="F525" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G525" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H525" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I525" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J525" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K525" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L525" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M525" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N525" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="O525" s="2"/>
+      <c r="P525" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q525" s="2"/>
+      <c r="R525" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S525" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T525" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U525" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V525" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W525" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X525" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y525" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z525" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA525" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB525" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC525" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD525" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE525" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF525" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AG525" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH525" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI525" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ525" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK525" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL525" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM525" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN525" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="526" hidden="true">
+      <c r="A526" t="s" s="2">
+        <v>915</v>
+      </c>
+      <c r="B526" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="C526" s="2"/>
+      <c r="D526" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E526" s="2"/>
+      <c r="F526" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G526" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H526" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I526" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J526" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K526" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L526" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M526" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N526" s="2"/>
+      <c r="O526" s="2"/>
+      <c r="P526" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q526" s="2"/>
+      <c r="R526" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S526" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T526" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U526" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V526" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W526" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X526" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y526" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z526" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA526" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB526" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC526" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD526" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE526" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF526" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AG526" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH526" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI526" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AJ526" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK526" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL526" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM526" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN526" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="527" hidden="true">
+      <c r="A527" t="s" s="2">
+        <v>916</v>
+      </c>
+      <c r="B527" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="C527" s="2"/>
+      <c r="D527" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E527" s="2"/>
+      <c r="F527" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G527" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H527" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I527" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J527" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K527" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L527" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M527" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N527" s="2"/>
+      <c r="O527" s="2"/>
+      <c r="P527" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q527" s="2"/>
+      <c r="R527" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S527" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T527" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U527" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V527" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W527" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X527" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y527" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z527" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA527" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB527" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC527" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD527" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE527" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF527" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG527" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH527" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI527" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ527" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK527" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL527" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AM527" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN527" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="528" hidden="true">
+      <c r="A528" t="s" s="2">
+        <v>917</v>
+      </c>
+      <c r="B528" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C528" s="2"/>
+      <c r="D528" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E528" s="2"/>
+      <c r="F528" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G528" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H528" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I528" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J528" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K528" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L528" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M528" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N528" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O528" s="2"/>
+      <c r="P528" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q528" s="2"/>
+      <c r="R528" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S528" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T528" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U528" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V528" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W528" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X528" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y528" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z528" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA528" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB528" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC528" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD528" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE528" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF528" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AG528" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH528" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI528" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ528" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK528" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL528" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AM528" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN528" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="529" hidden="true">
+      <c r="A529" t="s" s="2">
+        <v>918</v>
+      </c>
+      <c r="B529" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="C529" s="2"/>
+      <c r="D529" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="E529" s="2"/>
+      <c r="F529" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G529" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H529" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I529" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J529" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K529" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L529" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M529" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N529" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O529" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="P529" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q529" s="2"/>
+      <c r="R529" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S529" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T529" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U529" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V529" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W529" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X529" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y529" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z529" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA529" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB529" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC529" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD529" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE529" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF529" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AG529" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH529" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI529" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ529" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK529" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL529" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM529" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN529" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="530" hidden="true">
+      <c r="A530" t="s" s="2">
+        <v>919</v>
+      </c>
+      <c r="B530" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="C530" s="2"/>
+      <c r="D530" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E530" s="2"/>
+      <c r="F530" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G530" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H530" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I530" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J530" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K530" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L530" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M530" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N530" s="2"/>
+      <c r="O530" s="2"/>
+      <c r="P530" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q530" s="2"/>
+      <c r="R530" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S530" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T530" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U530" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V530" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W530" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X530" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Y530" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Z530" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AA530" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB530" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC530" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD530" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE530" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF530" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AG530" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH530" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI530" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ530" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK530" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL530" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM530" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN530" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="531" hidden="true">
+      <c r="A531" t="s" s="2">
+        <v>920</v>
+      </c>
+      <c r="B531" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="C531" s="2"/>
+      <c r="D531" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E531" s="2"/>
+      <c r="F531" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G531" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H531" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I531" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J531" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K531" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L531" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M531" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="N531" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="O531" s="2"/>
+      <c r="P531" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q531" s="2"/>
+      <c r="R531" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S531" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T531" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U531" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V531" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W531" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X531" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y531" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z531" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA531" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB531" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC531" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD531" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE531" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF531" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AG531" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH531" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI531" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ531" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK531" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL531" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM531" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN531" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="532" hidden="true">
+      <c r="A532" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="B532" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C532" s="2"/>
+      <c r="D532" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E532" s="2"/>
+      <c r="F532" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G532" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H532" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I532" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J532" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K532" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L532" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M532" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N532" s="2"/>
+      <c r="O532" s="2"/>
+      <c r="P532" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q532" s="2"/>
+      <c r="R532" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S532" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T532" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U532" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V532" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W532" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X532" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y532" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z532" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA532" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB532" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC532" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD532" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE532" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF532" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AG532" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH532" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI532" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ532" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK532" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL532" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM532" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN532" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="533" hidden="true">
+      <c r="A533" t="s" s="2">
+        <v>922</v>
+      </c>
+      <c r="B533" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C533" s="2"/>
+      <c r="D533" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E533" s="2"/>
+      <c r="F533" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G533" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H533" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I533" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J533" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K533" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L533" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M533" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N533" s="2"/>
+      <c r="O533" s="2"/>
+      <c r="P533" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q533" s="2"/>
+      <c r="R533" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S533" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T533" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U533" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V533" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W533" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X533" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y533" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z533" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA533" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB533" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC533" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD533" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE533" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF533" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AG533" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH533" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI533" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ533" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK533" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL533" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM533" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN533" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="534" hidden="true">
+      <c r="A534" t="s" s="2">
+        <v>923</v>
+      </c>
+      <c r="B534" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C534" s="2"/>
+      <c r="D534" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E534" s="2"/>
+      <c r="F534" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G534" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H534" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I534" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J534" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K534" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L534" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M534" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N534" s="2"/>
+      <c r="O534" s="2"/>
+      <c r="P534" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q534" s="2"/>
+      <c r="R534" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S534" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T534" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U534" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V534" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W534" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X534" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y534" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z534" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA534" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB534" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC534" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD534" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE534" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF534" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AG534" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH534" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI534" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ534" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK534" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL534" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM534" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN534" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="535" hidden="true">
+      <c r="A535" t="s" s="2">
+        <v>924</v>
+      </c>
+      <c r="B535" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="C535" s="2"/>
+      <c r="D535" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E535" s="2"/>
+      <c r="F535" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G535" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H535" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I535" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J535" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K535" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L535" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M535" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N535" s="2"/>
+      <c r="O535" s="2"/>
+      <c r="P535" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q535" s="2"/>
+      <c r="R535" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S535" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T535" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U535" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V535" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W535" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X535" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y535" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z535" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA535" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB535" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC535" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD535" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE535" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF535" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AG535" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH535" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI535" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ535" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK535" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL535" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM535" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN535" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="536" hidden="true">
+      <c r="A536" t="s" s="2">
+        <v>925</v>
+      </c>
+      <c r="B536" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C536" s="2"/>
+      <c r="D536" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E536" s="2"/>
+      <c r="F536" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G536" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H536" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I536" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J536" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K536" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L536" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M536" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N536" s="2"/>
+      <c r="O536" s="2"/>
+      <c r="P536" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q536" s="2"/>
+      <c r="R536" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S536" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T536" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U536" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V536" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W536" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X536" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y536" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z536" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA536" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB536" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC536" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD536" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE536" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF536" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AG536" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH536" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI536" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AJ536" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK536" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL536" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM536" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN536" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="537" hidden="true">
+      <c r="A537" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="B537" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C537" s="2"/>
+      <c r="D537" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E537" s="2"/>
+      <c r="F537" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G537" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H537" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I537" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J537" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K537" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L537" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M537" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N537" s="2"/>
+      <c r="O537" s="2"/>
+      <c r="P537" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q537" s="2"/>
+      <c r="R537" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S537" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T537" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U537" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V537" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W537" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X537" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y537" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z537" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA537" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB537" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC537" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD537" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE537" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF537" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG537" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH537" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI537" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ537" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK537" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL537" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AM537" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN537" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="538" hidden="true">
+      <c r="A538" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="B538" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="C538" s="2"/>
+      <c r="D538" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E538" s="2"/>
+      <c r="F538" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G538" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H538" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I538" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J538" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K538" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L538" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M538" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N538" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O538" s="2"/>
+      <c r="P538" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q538" s="2"/>
+      <c r="R538" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S538" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T538" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U538" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V538" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W538" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X538" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y538" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z538" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA538" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB538" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC538" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD538" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE538" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF538" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AG538" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH538" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI538" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ538" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK538" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL538" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AM538" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN538" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="539" hidden="true">
+      <c r="A539" t="s" s="2">
+        <v>928</v>
+      </c>
+      <c r="B539" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C539" s="2"/>
+      <c r="D539" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="E539" s="2"/>
+      <c r="F539" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G539" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H539" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I539" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J539" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K539" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L539" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M539" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N539" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O539" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="P539" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q539" s="2"/>
+      <c r="R539" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S539" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T539" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U539" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V539" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W539" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X539" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y539" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z539" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA539" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB539" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC539" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD539" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE539" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF539" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AG539" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH539" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI539" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ539" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK539" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL539" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM539" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN539" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="540" hidden="true">
+      <c r="A540" t="s" s="2">
+        <v>929</v>
+      </c>
+      <c r="B540" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C540" s="2"/>
+      <c r="D540" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E540" s="2"/>
+      <c r="F540" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G540" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H540" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I540" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J540" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K540" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L540" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M540" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N540" s="2"/>
+      <c r="O540" s="2"/>
+      <c r="P540" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q540" s="2"/>
+      <c r="R540" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S540" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T540" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U540" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V540" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W540" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X540" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y540" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z540" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA540" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB540" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC540" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD540" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE540" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF540" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AG540" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH540" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI540" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ540" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK540" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL540" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM540" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN540" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="541" hidden="true">
+      <c r="A541" t="s" s="2">
+        <v>930</v>
+      </c>
+      <c r="B541" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="C541" s="2"/>
+      <c r="D541" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E541" s="2"/>
+      <c r="F541" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G541" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H541" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I541" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J541" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K541" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L541" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M541" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N541" s="2"/>
+      <c r="O541" s="2"/>
+      <c r="P541" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q541" s="2"/>
+      <c r="R541" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S541" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T541" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U541" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V541" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W541" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X541" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y541" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z541" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA541" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB541" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC541" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD541" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE541" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF541" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AG541" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH541" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI541" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ541" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK541" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL541" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM541" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN541" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="542" hidden="true">
+      <c r="A542" t="s" s="2">
+        <v>931</v>
+      </c>
+      <c r="B542" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C542" s="2"/>
+      <c r="D542" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E542" s="2"/>
+      <c r="F542" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G542" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H542" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I542" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J542" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K542" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L542" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M542" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N542" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="O542" s="2"/>
+      <c r="P542" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q542" s="2"/>
+      <c r="R542" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S542" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T542" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U542" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V542" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W542" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X542" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y542" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z542" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA542" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB542" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC542" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD542" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE542" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF542" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AG542" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH542" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI542" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ542" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK542" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL542" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM542" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN542" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="543" hidden="true">
+      <c r="A543" t="s" s="2">
+        <v>932</v>
+      </c>
+      <c r="B543" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="C543" s="2"/>
+      <c r="D543" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E543" s="2"/>
+      <c r="F543" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G543" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H543" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I543" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J543" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K543" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L543" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M543" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N543" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="O543" s="2"/>
+      <c r="P543" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q543" s="2"/>
+      <c r="R543" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S543" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T543" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U543" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V543" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W543" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X543" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y543" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z543" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA543" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB543" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC543" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD543" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE543" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF543" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AG543" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH543" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI543" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ543" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK543" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL543" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM543" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN543" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="544" hidden="true">
+      <c r="A544" t="s" s="2">
+        <v>933</v>
+      </c>
+      <c r="B544" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="C544" s="2"/>
+      <c r="D544" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E544" s="2"/>
+      <c r="F544" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G544" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H544" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I544" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J544" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K544" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L544" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M544" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N544" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="O544" s="2"/>
+      <c r="P544" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q544" s="2"/>
+      <c r="R544" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S544" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T544" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U544" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V544" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W544" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X544" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y544" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z544" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA544" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB544" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC544" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD544" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE544" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF544" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AG544" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH544" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI544" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ544" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK544" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL544" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM544" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN544" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="545" hidden="true">
+      <c r="A545" t="s" s="2">
+        <v>934</v>
+      </c>
+      <c r="B545" t="s" s="2">
+        <v>934</v>
+      </c>
+      <c r="C545" s="2"/>
+      <c r="D545" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E545" s="2"/>
+      <c r="F545" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G545" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H545" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I545" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J545" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K545" t="s" s="2">
+        <v>935</v>
+      </c>
+      <c r="L545" t="s" s="2">
+        <v>936</v>
+      </c>
+      <c r="M545" t="s" s="2">
+        <v>937</v>
+      </c>
+      <c r="N545" t="s" s="2">
+        <v>938</v>
+      </c>
+      <c r="O545" t="s" s="2">
+        <v>939</v>
+      </c>
+      <c r="P545" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q545" s="2"/>
+      <c r="R545" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S545" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T545" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U545" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V545" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W545" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X545" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y545" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z545" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA545" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB545" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC545" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD545" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE545" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF545" t="s" s="2">
+        <v>934</v>
+      </c>
+      <c r="AG545" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH545" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI545" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ545" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK545" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL545" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM545" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN545" t="s" s="2">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN513">
+  <autoFilter ref="A1:AN545">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -61307,7 +65042,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI512">
+  <conditionalFormatting sqref="A2:AI544">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-ms-bundle-hla-multilocus.xlsx
+++ b/StructureDefinition-ms-bundle-hla-multilocus.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19473" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19473" uniqueCount="934">
   <si>
     <t>Property</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T10:20:43-05:00</t>
+    <t>2024-05-01T13:56:53-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>NMDP (http://bethematch.org)</t>
   </si>
   <si>
     <t>Description</t>
@@ -1181,10 +1181,6 @@
     <t>The US Core Patient Profile is based upon the core FHIR Patient Resource and designed to meet the applicable patient demographic data elements from the 2015 Edition Common Clinical Data Set.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Patient[classCode=PAT]</t>
   </si>
   <si>
@@ -1264,6 +1260,131 @@
   </si>
   <si>
     <t>Bundle.entry:msPatient.response.outcome</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv</t>
+  </si>
+  <si>
+    <t>msCmv</t>
+  </si>
+  <si>
+    <t>MatchSync Patient CMV Status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.resource</t>
+  </si>
+  <si>
+    <t>Vital Signs
+MeasurementResultsTests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observation {http://fhir.nmdp.org/ig/matchsync/StructureDefinition/ms-cmvgroup-observation}
+</t>
+  </si>
+  <si>
+    <t>Measurements and simple assertions</t>
+  </si>
+  <si>
+    <t>Measurements and simple assertions made about a patient, device or other subject.</t>
+  </si>
+  <si>
+    <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
+  </si>
+  <si>
+    <t>OBX</t>
+  </si>
+  <si>
+    <t>Observation[classCode=OBS, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:msCmv.response.outcome</t>
   </si>
   <si>
     <t>Bundle.entry:msDiagnosis</t>
@@ -1306,10 +1427,6 @@
     <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.</t>
   </si>
   <si>
-    <t>con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
-con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>PPR message</t>
   </si>
   <si>
@@ -1389,138 +1506,6 @@
   </si>
   <si>
     <t>Bundle.entry:msDiagnosis.response.outcome</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity</t>
-  </si>
-  <si>
-    <t>msGenderIdentity</t>
-  </si>
-  <si>
-    <t>MatchSync Patient Self Identified Gender</t>
-  </si>
-  <si>
-    <t>The MatchSync Patient whose data is included in the bundle (optional).</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.resource</t>
-  </si>
-  <si>
-    <t>Vital Signs
-MeasurementResultsTests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observation {http://fhir.nmdp.org/ig/matchsync/StructureDefinition/ms-patient-gender-identity-observation}
-</t>
-  </si>
-  <si>
-    <t>Measurements and simple assertions</t>
-  </si>
-  <si>
-    <t>Measurements and simple assertions made about a patient, device or other subject.</t>
-  </si>
-  <si>
-    <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
-  </si>
-  <si>
-    <t>OBX</t>
-  </si>
-  <si>
-    <t>Observation[classCode=OBS, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:msGenderIdentity.response.outcome</t>
   </si>
   <si>
     <t>Bundle.entry:msPractitionerRole</t>
@@ -1796,10 +1781,6 @@
     <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
-  </si>
-  <si>
     <t>(also see master files messages)</t>
   </si>
   <si>
@@ -2461,10 +2442,6 @@
   </si>
   <si>
     <t>This profile defines  how to represent Body Height observations in FHIR using a standard LOINC code and UCUM units of measure.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
   </si>
   <si>
     <t>Bundle.entry:msObsHeight.search</t>
@@ -3234,7 +3211,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="100.42578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.4140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -11316,16 +11293,16 @@
         <v>75</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AK71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>75</v>
@@ -11333,7 +11310,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>288</v>
@@ -11445,7 +11422,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>292</v>
@@ -11557,7 +11534,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>293</v>
@@ -11671,7 +11648,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>294</v>
@@ -11787,7 +11764,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>295</v>
@@ -11901,7 +11878,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>301</v>
@@ -12015,7 +11992,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>306</v>
@@ -12127,7 +12104,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>310</v>
@@ -12239,7 +12216,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>311</v>
@@ -12353,7 +12330,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>312</v>
@@ -12469,7 +12446,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>313</v>
@@ -12581,7 +12558,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>318</v>
@@ -12695,7 +12672,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>322</v>
@@ -12807,7 +12784,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>325</v>
@@ -12919,7 +12896,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>327</v>
@@ -13031,7 +13008,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>330</v>
@@ -13143,7 +13120,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>333</v>
@@ -13255,7 +13232,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>337</v>
@@ -13367,7 +13344,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>338</v>
@@ -13481,7 +13458,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>339</v>
@@ -13597,7 +13574,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>340</v>
@@ -13709,7 +13686,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>343</v>
@@ -13821,7 +13798,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>346</v>
@@ -13935,7 +13912,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>350</v>
@@ -14049,7 +14026,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>354</v>
@@ -14163,23 +14140,23 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>86</v>
@@ -14194,10 +14171,10 @@
         <v>249</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>403</v>
+        <v>361</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -14277,7 +14254,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>274</v>
@@ -14389,7 +14366,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>275</v>
@@ -14503,7 +14480,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>276</v>
@@ -14619,7 +14596,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>277</v>
@@ -14731,7 +14708,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>280</v>
@@ -14845,14 +14822,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>75</v>
+        <v>408</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14871,15 +14848,17 @@
         <v>75</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>75</v>
@@ -14940,13 +14919,13 @@
         <v>75</v>
       </c>
       <c r="AJ103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK103" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AK103" t="s" s="2">
+      <c r="AL103" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>75</v>
@@ -14957,7 +14936,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>288</v>
@@ -15069,7 +15048,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>292</v>
@@ -15181,7 +15160,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>293</v>
@@ -15295,7 +15274,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>294</v>
@@ -15411,7 +15390,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>295</v>
@@ -15525,7 +15504,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>301</v>
@@ -15639,7 +15618,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>306</v>
@@ -15751,7 +15730,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>310</v>
@@ -15863,7 +15842,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>311</v>
@@ -15977,7 +15956,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>312</v>
@@ -16093,7 +16072,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>313</v>
@@ -16205,7 +16184,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>318</v>
@@ -16319,7 +16298,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>322</v>
@@ -16431,7 +16410,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>325</v>
@@ -16543,7 +16522,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>327</v>
@@ -16655,7 +16634,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>330</v>
@@ -16767,7 +16746,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>333</v>
@@ -16879,7 +16858,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>337</v>
@@ -16991,7 +16970,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>338</v>
@@ -17105,7 +17084,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>339</v>
@@ -17221,7 +17200,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>340</v>
@@ -17333,7 +17312,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>343</v>
@@ -17445,7 +17424,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>346</v>
@@ -17559,7 +17538,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>350</v>
@@ -17673,7 +17652,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>354</v>
@@ -17787,23 +17766,23 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D129" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>86</v>
@@ -17818,10 +17797,10 @@
         <v>249</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -17901,7 +17880,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>274</v>
@@ -18013,7 +17992,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>275</v>
@@ -18127,7 +18106,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>276</v>
@@ -18243,7 +18222,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>277</v>
@@ -18355,7 +18334,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>280</v>
@@ -18469,14 +18448,14 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
-        <v>451</v>
+        <v>75</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s" s="2">
@@ -18495,17 +18474,15 @@
         <v>75</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="L135" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>455</v>
-      </c>
+      <c r="N135" s="2"/>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
         <v>75</v>
@@ -18566,13 +18543,13 @@
         <v>75</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>456</v>
+        <v>75</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>75</v>
@@ -18583,7 +18560,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>288</v>
@@ -18695,7 +18672,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>292</v>
@@ -18807,7 +18784,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>293</v>
@@ -18921,7 +18898,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>294</v>
@@ -19037,7 +19014,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>295</v>
@@ -19151,7 +19128,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>301</v>
@@ -19265,7 +19242,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>306</v>
@@ -19377,7 +19354,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>310</v>
@@ -19489,7 +19466,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>311</v>
@@ -19603,7 +19580,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>312</v>
@@ -19719,7 +19696,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>313</v>
@@ -19831,7 +19808,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>318</v>
@@ -19945,7 +19922,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>322</v>
@@ -20057,7 +20034,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>325</v>
@@ -20169,7 +20146,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>327</v>
@@ -20281,7 +20258,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>330</v>
@@ -20393,7 +20370,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>333</v>
@@ -20505,7 +20482,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>337</v>
@@ -20617,7 +20594,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>338</v>
@@ -20731,7 +20708,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>339</v>
@@ -20847,7 +20824,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>340</v>
@@ -20959,7 +20936,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>343</v>
@@ -21071,7 +21048,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>346</v>
@@ -21185,7 +21162,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>350</v>
@@ -21299,7 +21276,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>354</v>
@@ -21413,13 +21390,13 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>75</v>
@@ -21444,10 +21421,10 @@
         <v>249</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -21527,7 +21504,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>274</v>
@@ -21639,7 +21616,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>275</v>
@@ -21753,7 +21730,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>276</v>
@@ -21869,7 +21846,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>277</v>
@@ -21981,7 +21958,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>280</v>
@@ -22095,7 +22072,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>284</v>
@@ -22121,13 +22098,13 @@
         <v>75</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -22190,13 +22167,13 @@
         <v>75</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>372</v>
+        <v>75</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>75</v>
@@ -22207,7 +22184,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>288</v>
@@ -22319,7 +22296,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>292</v>
@@ -22431,7 +22408,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>293</v>
@@ -22545,7 +22522,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>294</v>
@@ -22661,7 +22638,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>295</v>
@@ -22775,7 +22752,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>301</v>
@@ -22889,7 +22866,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>306</v>
@@ -23001,7 +22978,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>310</v>
@@ -23113,7 +23090,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>311</v>
@@ -23227,7 +23204,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>312</v>
@@ -23343,7 +23320,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>313</v>
@@ -23455,7 +23432,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>318</v>
@@ -23569,7 +23546,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>322</v>
@@ -23681,7 +23658,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>325</v>
@@ -23793,7 +23770,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>327</v>
@@ -23905,7 +23882,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>330</v>
@@ -24017,7 +23994,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>333</v>
@@ -24129,7 +24106,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>337</v>
@@ -24241,7 +24218,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>338</v>
@@ -24355,7 +24332,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>339</v>
@@ -24471,7 +24448,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>340</v>
@@ -24583,7 +24560,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>343</v>
@@ -24695,7 +24672,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>346</v>
@@ -24809,7 +24786,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>350</v>
@@ -24923,7 +24900,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>354</v>
@@ -25037,13 +25014,13 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>75</v>
@@ -25068,10 +25045,10 @@
         <v>249</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
@@ -25151,7 +25128,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>274</v>
@@ -25263,7 +25240,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>275</v>
@@ -25377,7 +25354,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>276</v>
@@ -25493,7 +25470,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>277</v>
@@ -25605,7 +25582,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>280</v>
@@ -25719,7 +25696,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>284</v>
@@ -25745,13 +25722,13 @@
         <v>75</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -25814,13 +25791,13 @@
         <v>75</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>372</v>
+        <v>75</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="AM199" t="s" s="2">
         <v>75</v>
@@ -25831,7 +25808,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>288</v>
@@ -25943,7 +25920,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>292</v>
@@ -26055,7 +26032,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>293</v>
@@ -26169,7 +26146,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>294</v>
@@ -26285,7 +26262,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>295</v>
@@ -26399,7 +26376,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>301</v>
@@ -26513,7 +26490,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>306</v>
@@ -26625,7 +26602,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>310</v>
@@ -26737,7 +26714,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>311</v>
@@ -26851,7 +26828,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>312</v>
@@ -26967,7 +26944,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>313</v>
@@ -27079,7 +27056,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>318</v>
@@ -27193,7 +27170,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>322</v>
@@ -27305,7 +27282,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>325</v>
@@ -27417,7 +27394,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>327</v>
@@ -27529,7 +27506,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>330</v>
@@ -27641,7 +27618,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>333</v>
@@ -27753,7 +27730,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>337</v>
@@ -27865,7 +27842,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>338</v>
@@ -27979,7 +27956,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>339</v>
@@ -28095,7 +28072,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>340</v>
@@ -28207,7 +28184,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>343</v>
@@ -28319,7 +28296,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>346</v>
@@ -28433,7 +28410,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>350</v>
@@ -28547,7 +28524,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>354</v>
@@ -28661,13 +28638,13 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D225" t="s" s="2">
         <v>75</v>
@@ -28692,10 +28669,10 @@
         <v>249</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" s="2"/>
@@ -28775,7 +28752,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>274</v>
@@ -28887,7 +28864,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>275</v>
@@ -29001,7 +28978,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>276</v>
@@ -29117,7 +29094,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>277</v>
@@ -29229,7 +29206,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>280</v>
@@ -29343,7 +29320,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>284</v>
@@ -29369,13 +29346,13 @@
         <v>75</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="N231" s="2"/>
       <c r="O231" s="2"/>
@@ -29438,13 +29415,13 @@
         <v>75</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>574</v>
+        <v>75</v>
       </c>
       <c r="AK231" t="s" s="2">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="AL231" t="s" s="2">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="AM231" t="s" s="2">
         <v>75</v>
@@ -29455,7 +29432,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>288</v>
@@ -29567,7 +29544,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>292</v>
@@ -29679,7 +29656,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>293</v>
@@ -29793,7 +29770,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>294</v>
@@ -29909,7 +29886,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>295</v>
@@ -30023,7 +30000,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>301</v>
@@ -30137,7 +30114,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>306</v>
@@ -30249,7 +30226,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>310</v>
@@ -30361,7 +30338,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>311</v>
@@ -30475,7 +30452,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>312</v>
@@ -30591,7 +30568,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>313</v>
@@ -30703,7 +30680,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>318</v>
@@ -30817,7 +30794,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>322</v>
@@ -30929,7 +30906,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>325</v>
@@ -31041,7 +31018,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>327</v>
@@ -31153,7 +31130,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>330</v>
@@ -31265,7 +31242,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>333</v>
@@ -31377,7 +31354,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>337</v>
@@ -31489,7 +31466,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>338</v>
@@ -31603,7 +31580,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>339</v>
@@ -31719,7 +31696,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>340</v>
@@ -31831,7 +31808,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>343</v>
@@ -31943,7 +31920,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>346</v>
@@ -32057,7 +32034,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>350</v>
@@ -32171,7 +32148,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>354</v>
@@ -32285,13 +32262,13 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D257" t="s" s="2">
         <v>75</v>
@@ -32316,10 +32293,10 @@
         <v>249</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="N257" s="2"/>
       <c r="O257" s="2"/>
@@ -32399,7 +32376,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>274</v>
@@ -32511,7 +32488,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>275</v>
@@ -32625,7 +32602,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>276</v>
@@ -32741,7 +32718,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>277</v>
@@ -32853,7 +32830,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>280</v>
@@ -32967,14 +32944,14 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
-        <v>451</v>
+        <v>408</v>
       </c>
       <c r="E263" s="2"/>
       <c r="F263" t="s" s="2">
@@ -32993,16 +32970,16 @@
         <v>75</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>453</v>
+        <v>410</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>454</v>
+        <v>411</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>455</v>
+        <v>412</v>
       </c>
       <c r="O263" s="2"/>
       <c r="P263" t="s" s="2">
@@ -33064,13 +33041,13 @@
         <v>75</v>
       </c>
       <c r="AJ263" t="s" s="2">
-        <v>456</v>
+        <v>75</v>
       </c>
       <c r="AK263" t="s" s="2">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="AL263" t="s" s="2">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="AM263" t="s" s="2">
         <v>75</v>
@@ -33081,7 +33058,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>288</v>
@@ -33193,7 +33170,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>292</v>
@@ -33305,7 +33282,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>293</v>
@@ -33419,7 +33396,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>294</v>
@@ -33535,7 +33512,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>295</v>
@@ -33649,7 +33626,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>301</v>
@@ -33763,7 +33740,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>306</v>
@@ -33875,7 +33852,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>310</v>
@@ -33987,7 +33964,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>311</v>
@@ -34101,7 +34078,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>312</v>
@@ -34217,7 +34194,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>313</v>
@@ -34329,7 +34306,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>318</v>
@@ -34443,7 +34420,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>322</v>
@@ -34555,7 +34532,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>325</v>
@@ -34667,7 +34644,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>327</v>
@@ -34779,7 +34756,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>330</v>
@@ -34891,7 +34868,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>333</v>
@@ -35003,7 +34980,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>337</v>
@@ -35115,7 +35092,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>338</v>
@@ -35229,7 +35206,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>339</v>
@@ -35345,7 +35322,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>340</v>
@@ -35457,7 +35434,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>343</v>
@@ -35569,7 +35546,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>346</v>
@@ -35683,7 +35660,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>350</v>
@@ -35797,7 +35774,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>354</v>
@@ -35911,13 +35888,13 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D289" t="s" s="2">
         <v>75</v>
@@ -35942,10 +35919,10 @@
         <v>249</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="N289" s="2"/>
       <c r="O289" s="2"/>
@@ -36025,7 +36002,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>274</v>
@@ -36137,7 +36114,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>275</v>
@@ -36251,7 +36228,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>276</v>
@@ -36367,7 +36344,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>277</v>
@@ -36479,7 +36456,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>280</v>
@@ -36593,14 +36570,14 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
-        <v>451</v>
+        <v>408</v>
       </c>
       <c r="E295" s="2"/>
       <c r="F295" t="s" s="2">
@@ -36619,16 +36596,16 @@
         <v>75</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>453</v>
+        <v>410</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>454</v>
+        <v>411</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>455</v>
+        <v>412</v>
       </c>
       <c r="O295" s="2"/>
       <c r="P295" t="s" s="2">
@@ -36690,13 +36667,13 @@
         <v>75</v>
       </c>
       <c r="AJ295" t="s" s="2">
-        <v>456</v>
+        <v>75</v>
       </c>
       <c r="AK295" t="s" s="2">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="AL295" t="s" s="2">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="AM295" t="s" s="2">
         <v>75</v>
@@ -36707,7 +36684,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>288</v>
@@ -36819,7 +36796,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>292</v>
@@ -36931,7 +36908,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>293</v>
@@ -37045,7 +37022,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>294</v>
@@ -37161,7 +37138,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>295</v>
@@ -37275,7 +37252,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>301</v>
@@ -37389,7 +37366,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>306</v>
@@ -37501,7 +37478,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>310</v>
@@ -37613,7 +37590,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>311</v>
@@ -37727,7 +37704,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>312</v>
@@ -37843,7 +37820,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>313</v>
@@ -37955,7 +37932,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>318</v>
@@ -38069,7 +38046,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>322</v>
@@ -38181,7 +38158,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>325</v>
@@ -38293,7 +38270,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>327</v>
@@ -38405,7 +38382,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>330</v>
@@ -38517,7 +38494,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>333</v>
@@ -38629,7 +38606,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>337</v>
@@ -38741,7 +38718,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>338</v>
@@ -38855,7 +38832,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>339</v>
@@ -38971,7 +38948,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>340</v>
@@ -39083,7 +39060,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>343</v>
@@ -39195,7 +39172,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>346</v>
@@ -39309,7 +39286,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>350</v>
@@ -39423,7 +39400,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>354</v>
@@ -39537,13 +39514,13 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D321" t="s" s="2">
         <v>75</v>
@@ -39568,10 +39545,10 @@
         <v>249</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="N321" s="2"/>
       <c r="O321" s="2"/>
@@ -39651,7 +39628,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>274</v>
@@ -39763,7 +39740,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>275</v>
@@ -39877,7 +39854,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>276</v>
@@ -39993,7 +39970,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>277</v>
@@ -40105,7 +40082,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>280</v>
@@ -40219,14 +40196,14 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" t="s" s="2">
-        <v>451</v>
+        <v>408</v>
       </c>
       <c r="E327" s="2"/>
       <c r="F327" t="s" s="2">
@@ -40245,16 +40222,16 @@
         <v>75</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>453</v>
+        <v>410</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>454</v>
+        <v>411</v>
       </c>
       <c r="N327" t="s" s="2">
-        <v>455</v>
+        <v>412</v>
       </c>
       <c r="O327" s="2"/>
       <c r="P327" t="s" s="2">
@@ -40316,13 +40293,13 @@
         <v>75</v>
       </c>
       <c r="AJ327" t="s" s="2">
-        <v>456</v>
+        <v>75</v>
       </c>
       <c r="AK327" t="s" s="2">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="AL327" t="s" s="2">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="AM327" t="s" s="2">
         <v>75</v>
@@ -40333,7 +40310,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>288</v>
@@ -40445,7 +40422,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>292</v>
@@ -40557,7 +40534,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>293</v>
@@ -40671,7 +40648,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>294</v>
@@ -40787,7 +40764,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>295</v>
@@ -40901,7 +40878,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>301</v>
@@ -41015,7 +40992,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>306</v>
@@ -41127,7 +41104,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>310</v>
@@ -41239,7 +41216,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>311</v>
@@ -41353,7 +41330,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>312</v>
@@ -41469,7 +41446,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>313</v>
@@ -41581,7 +41558,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>318</v>
@@ -41695,7 +41672,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>322</v>
@@ -41807,7 +41784,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>325</v>
@@ -41919,7 +41896,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>327</v>
@@ -42031,7 +42008,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>330</v>
@@ -42143,7 +42120,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>333</v>
@@ -42255,7 +42232,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>337</v>
@@ -42367,7 +42344,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>338</v>
@@ -42481,7 +42458,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>339</v>
@@ -42597,7 +42574,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>340</v>
@@ -42709,7 +42686,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>343</v>
@@ -42821,7 +42798,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>346</v>
@@ -42935,7 +42912,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>350</v>
@@ -43049,7 +43026,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>354</v>
@@ -43163,13 +43140,13 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D353" t="s" s="2">
         <v>75</v>
@@ -43194,10 +43171,10 @@
         <v>249</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="N353" s="2"/>
       <c r="O353" s="2"/>
@@ -43277,7 +43254,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>274</v>
@@ -43389,7 +43366,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>275</v>
@@ -43503,7 +43480,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>276</v>
@@ -43619,7 +43596,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>277</v>
@@ -43731,7 +43708,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>280</v>
@@ -43845,14 +43822,14 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" t="s" s="2">
-        <v>451</v>
+        <v>408</v>
       </c>
       <c r="E359" s="2"/>
       <c r="F359" t="s" s="2">
@@ -43871,16 +43848,16 @@
         <v>75</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>453</v>
+        <v>410</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>454</v>
+        <v>411</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>455</v>
+        <v>412</v>
       </c>
       <c r="O359" s="2"/>
       <c r="P359" t="s" s="2">
@@ -43942,13 +43919,13 @@
         <v>75</v>
       </c>
       <c r="AJ359" t="s" s="2">
-        <v>456</v>
+        <v>75</v>
       </c>
       <c r="AK359" t="s" s="2">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="AL359" t="s" s="2">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="AM359" t="s" s="2">
         <v>75</v>
@@ -43959,7 +43936,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>288</v>
@@ -44071,7 +44048,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>292</v>
@@ -44183,7 +44160,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>293</v>
@@ -44297,7 +44274,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>294</v>
@@ -44413,7 +44390,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>295</v>
@@ -44527,7 +44504,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>301</v>
@@ -44641,7 +44618,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>306</v>
@@ -44753,7 +44730,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>310</v>
@@ -44865,7 +44842,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>311</v>
@@ -44979,7 +44956,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>312</v>
@@ -45095,7 +45072,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>313</v>
@@ -45207,7 +45184,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>318</v>
@@ -45321,7 +45298,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>322</v>
@@ -45433,7 +45410,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>325</v>
@@ -45545,7 +45522,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>327</v>
@@ -45657,7 +45634,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>330</v>
@@ -45769,7 +45746,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>333</v>
@@ -45881,7 +45858,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>337</v>
@@ -45993,7 +45970,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>338</v>
@@ -46107,7 +46084,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>339</v>
@@ -46223,7 +46200,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>340</v>
@@ -46335,7 +46312,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>343</v>
@@ -46447,7 +46424,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>346</v>
@@ -46561,7 +46538,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>350</v>
@@ -46675,7 +46652,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>354</v>
@@ -46789,13 +46766,13 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D385" t="s" s="2">
         <v>75</v>
@@ -46820,10 +46797,10 @@
         <v>249</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="M385" t="s" s="2">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="N385" s="2"/>
       <c r="O385" s="2"/>
@@ -46903,7 +46880,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B386" t="s" s="2">
         <v>274</v>
@@ -47015,7 +46992,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>275</v>
@@ -47129,7 +47106,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>276</v>
@@ -47245,7 +47222,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B389" t="s" s="2">
         <v>277</v>
@@ -47357,7 +47334,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B390" t="s" s="2">
         <v>280</v>
@@ -47471,14 +47448,14 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B391" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C391" s="2"/>
       <c r="D391" t="s" s="2">
-        <v>451</v>
+        <v>408</v>
       </c>
       <c r="E391" s="2"/>
       <c r="F391" t="s" s="2">
@@ -47497,16 +47474,16 @@
         <v>75</v>
       </c>
       <c r="K391" t="s" s="2">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>453</v>
+        <v>410</v>
       </c>
       <c r="M391" t="s" s="2">
-        <v>454</v>
+        <v>411</v>
       </c>
       <c r="N391" t="s" s="2">
-        <v>455</v>
+        <v>412</v>
       </c>
       <c r="O391" s="2"/>
       <c r="P391" t="s" s="2">
@@ -47568,13 +47545,13 @@
         <v>75</v>
       </c>
       <c r="AJ391" t="s" s="2">
-        <v>456</v>
+        <v>75</v>
       </c>
       <c r="AK391" t="s" s="2">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="AL391" t="s" s="2">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="AM391" t="s" s="2">
         <v>75</v>
@@ -47585,7 +47562,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>288</v>
@@ -47697,7 +47674,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>292</v>
@@ -47809,7 +47786,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>293</v>
@@ -47923,7 +47900,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B395" t="s" s="2">
         <v>294</v>
@@ -48039,7 +48016,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B396" t="s" s="2">
         <v>295</v>
@@ -48153,7 +48130,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B397" t="s" s="2">
         <v>301</v>
@@ -48267,7 +48244,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>306</v>
@@ -48379,7 +48356,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>310</v>
@@ -48491,7 +48468,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>311</v>
@@ -48605,7 +48582,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B401" t="s" s="2">
         <v>312</v>
@@ -48721,7 +48698,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B402" t="s" s="2">
         <v>313</v>
@@ -48833,7 +48810,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B403" t="s" s="2">
         <v>318</v>
@@ -48947,7 +48924,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B404" t="s" s="2">
         <v>322</v>
@@ -49059,7 +49036,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B405" t="s" s="2">
         <v>325</v>
@@ -49171,7 +49148,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B406" t="s" s="2">
         <v>327</v>
@@ -49283,7 +49260,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B407" t="s" s="2">
         <v>330</v>
@@ -49395,7 +49372,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>333</v>
@@ -49507,7 +49484,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B409" t="s" s="2">
         <v>337</v>
@@ -49619,7 +49596,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>338</v>
@@ -49733,7 +49710,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B411" t="s" s="2">
         <v>339</v>
@@ -49849,7 +49826,7 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>340</v>
@@ -49961,7 +49938,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>343</v>
@@ -50073,7 +50050,7 @@
     </row>
     <row r="414" hidden="true">
       <c r="A414" t="s" s="2">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B414" t="s" s="2">
         <v>346</v>
@@ -50187,7 +50164,7 @@
     </row>
     <row r="415" hidden="true">
       <c r="A415" t="s" s="2">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B415" t="s" s="2">
         <v>350</v>
@@ -50301,7 +50278,7 @@
     </row>
     <row r="416" hidden="true">
       <c r="A416" t="s" s="2">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B416" t="s" s="2">
         <v>354</v>
@@ -50415,13 +50392,13 @@
     </row>
     <row r="417" hidden="true">
       <c r="A417" t="s" s="2">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B417" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="D417" t="s" s="2">
         <v>75</v>
@@ -50446,10 +50423,10 @@
         <v>249</v>
       </c>
       <c r="L417" t="s" s="2">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="M417" t="s" s="2">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="N417" s="2"/>
       <c r="O417" s="2"/>
@@ -50529,7 +50506,7 @@
     </row>
     <row r="418" hidden="true">
       <c r="A418" t="s" s="2">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B418" t="s" s="2">
         <v>274</v>
@@ -50641,7 +50618,7 @@
     </row>
     <row r="419" hidden="true">
       <c r="A419" t="s" s="2">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="B419" t="s" s="2">
         <v>275</v>
@@ -50755,7 +50732,7 @@
     </row>
     <row r="420" hidden="true">
       <c r="A420" t="s" s="2">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B420" t="s" s="2">
         <v>276</v>
@@ -50871,7 +50848,7 @@
     </row>
     <row r="421" hidden="true">
       <c r="A421" t="s" s="2">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="B421" t="s" s="2">
         <v>277</v>
@@ -50983,7 +50960,7 @@
     </row>
     <row r="422" hidden="true">
       <c r="A422" t="s" s="2">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="B422" t="s" s="2">
         <v>280</v>
@@ -51097,14 +51074,14 @@
     </row>
     <row r="423" hidden="true">
       <c r="A423" t="s" s="2">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B423" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C423" s="2"/>
       <c r="D423" t="s" s="2">
-        <v>451</v>
+        <v>408</v>
       </c>
       <c r="E423" s="2"/>
       <c r="F423" t="s" s="2">
@@ -51123,16 +51100,16 @@
         <v>75</v>
       </c>
       <c r="K423" t="s" s="2">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="L423" t="s" s="2">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="M423" t="s" s="2">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="N423" t="s" s="2">
-        <v>455</v>
+        <v>412</v>
       </c>
       <c r="O423" s="2"/>
       <c r="P423" t="s" s="2">
@@ -51194,13 +51171,13 @@
         <v>75</v>
       </c>
       <c r="AJ423" t="s" s="2">
-        <v>794</v>
+        <v>75</v>
       </c>
       <c r="AK423" t="s" s="2">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="AL423" t="s" s="2">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="AM423" t="s" s="2">
         <v>75</v>
@@ -51211,7 +51188,7 @@
     </row>
     <row r="424" hidden="true">
       <c r="A424" t="s" s="2">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B424" t="s" s="2">
         <v>288</v>
@@ -51323,7 +51300,7 @@
     </row>
     <row r="425" hidden="true">
       <c r="A425" t="s" s="2">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="B425" t="s" s="2">
         <v>292</v>
@@ -51435,7 +51412,7 @@
     </row>
     <row r="426" hidden="true">
       <c r="A426" t="s" s="2">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="B426" t="s" s="2">
         <v>293</v>
@@ -51549,7 +51526,7 @@
     </row>
     <row r="427" hidden="true">
       <c r="A427" t="s" s="2">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B427" t="s" s="2">
         <v>294</v>
@@ -51665,7 +51642,7 @@
     </row>
     <row r="428" hidden="true">
       <c r="A428" t="s" s="2">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="B428" t="s" s="2">
         <v>295</v>
@@ -51779,7 +51756,7 @@
     </row>
     <row r="429" hidden="true">
       <c r="A429" t="s" s="2">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B429" t="s" s="2">
         <v>301</v>
@@ -51893,7 +51870,7 @@
     </row>
     <row r="430" hidden="true">
       <c r="A430" t="s" s="2">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B430" t="s" s="2">
         <v>306</v>
@@ -52005,7 +51982,7 @@
     </row>
     <row r="431" hidden="true">
       <c r="A431" t="s" s="2">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="B431" t="s" s="2">
         <v>310</v>
@@ -52117,7 +52094,7 @@
     </row>
     <row r="432" hidden="true">
       <c r="A432" t="s" s="2">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="B432" t="s" s="2">
         <v>311</v>
@@ -52231,7 +52208,7 @@
     </row>
     <row r="433" hidden="true">
       <c r="A433" t="s" s="2">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="B433" t="s" s="2">
         <v>312</v>
@@ -52347,7 +52324,7 @@
     </row>
     <row r="434" hidden="true">
       <c r="A434" t="s" s="2">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="B434" t="s" s="2">
         <v>313</v>
@@ -52459,7 +52436,7 @@
     </row>
     <row r="435" hidden="true">
       <c r="A435" t="s" s="2">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B435" t="s" s="2">
         <v>318</v>
@@ -52573,7 +52550,7 @@
     </row>
     <row r="436" hidden="true">
       <c r="A436" t="s" s="2">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B436" t="s" s="2">
         <v>322</v>
@@ -52685,7 +52662,7 @@
     </row>
     <row r="437" hidden="true">
       <c r="A437" t="s" s="2">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="B437" t="s" s="2">
         <v>325</v>
@@ -52797,7 +52774,7 @@
     </row>
     <row r="438" hidden="true">
       <c r="A438" t="s" s="2">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="B438" t="s" s="2">
         <v>327</v>
@@ -52909,7 +52886,7 @@
     </row>
     <row r="439" hidden="true">
       <c r="A439" t="s" s="2">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="B439" t="s" s="2">
         <v>330</v>
@@ -53021,7 +52998,7 @@
     </row>
     <row r="440" hidden="true">
       <c r="A440" t="s" s="2">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="B440" t="s" s="2">
         <v>333</v>
@@ -53133,7 +53110,7 @@
     </row>
     <row r="441" hidden="true">
       <c r="A441" t="s" s="2">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="B441" t="s" s="2">
         <v>337</v>
@@ -53245,7 +53222,7 @@
     </row>
     <row r="442" hidden="true">
       <c r="A442" t="s" s="2">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="B442" t="s" s="2">
         <v>338</v>
@@ -53359,7 +53336,7 @@
     </row>
     <row r="443" hidden="true">
       <c r="A443" t="s" s="2">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B443" t="s" s="2">
         <v>339</v>
@@ -53475,7 +53452,7 @@
     </row>
     <row r="444" hidden="true">
       <c r="A444" t="s" s="2">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="B444" t="s" s="2">
         <v>340</v>
@@ -53587,7 +53564,7 @@
     </row>
     <row r="445" hidden="true">
       <c r="A445" t="s" s="2">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="B445" t="s" s="2">
         <v>343</v>
@@ -53699,7 +53676,7 @@
     </row>
     <row r="446" hidden="true">
       <c r="A446" t="s" s="2">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B446" t="s" s="2">
         <v>346</v>
@@ -53813,7 +53790,7 @@
     </row>
     <row r="447" hidden="true">
       <c r="A447" t="s" s="2">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="B447" t="s" s="2">
         <v>350</v>
@@ -53927,7 +53904,7 @@
     </row>
     <row r="448" hidden="true">
       <c r="A448" t="s" s="2">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="B448" t="s" s="2">
         <v>354</v>
@@ -54041,13 +54018,13 @@
     </row>
     <row r="449" hidden="true">
       <c r="A449" t="s" s="2">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="B449" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C449" t="s" s="2">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="D449" t="s" s="2">
         <v>75</v>
@@ -54072,10 +54049,10 @@
         <v>249</v>
       </c>
       <c r="L449" t="s" s="2">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="M449" t="s" s="2">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="N449" s="2"/>
       <c r="O449" s="2"/>
@@ -54155,7 +54132,7 @@
     </row>
     <row r="450" hidden="true">
       <c r="A450" t="s" s="2">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="B450" t="s" s="2">
         <v>274</v>
@@ -54267,7 +54244,7 @@
     </row>
     <row r="451" hidden="true">
       <c r="A451" t="s" s="2">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="B451" t="s" s="2">
         <v>275</v>
@@ -54381,7 +54358,7 @@
     </row>
     <row r="452" hidden="true">
       <c r="A452" t="s" s="2">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="B452" t="s" s="2">
         <v>276</v>
@@ -54497,7 +54474,7 @@
     </row>
     <row r="453" hidden="true">
       <c r="A453" t="s" s="2">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="B453" t="s" s="2">
         <v>277</v>
@@ -54609,7 +54586,7 @@
     </row>
     <row r="454" hidden="true">
       <c r="A454" t="s" s="2">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="B454" t="s" s="2">
         <v>280</v>
@@ -54723,14 +54700,14 @@
     </row>
     <row r="455" hidden="true">
       <c r="A455" t="s" s="2">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="B455" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C455" s="2"/>
       <c r="D455" t="s" s="2">
-        <v>451</v>
+        <v>408</v>
       </c>
       <c r="E455" s="2"/>
       <c r="F455" t="s" s="2">
@@ -54749,16 +54726,16 @@
         <v>75</v>
       </c>
       <c r="K455" t="s" s="2">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="L455" t="s" s="2">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="M455" t="s" s="2">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="N455" t="s" s="2">
-        <v>455</v>
+        <v>412</v>
       </c>
       <c r="O455" s="2"/>
       <c r="P455" t="s" s="2">
@@ -54820,13 +54797,13 @@
         <v>75</v>
       </c>
       <c r="AJ455" t="s" s="2">
-        <v>794</v>
+        <v>75</v>
       </c>
       <c r="AK455" t="s" s="2">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="AL455" t="s" s="2">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="AM455" t="s" s="2">
         <v>75</v>
@@ -54837,7 +54814,7 @@
     </row>
     <row r="456" hidden="true">
       <c r="A456" t="s" s="2">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="B456" t="s" s="2">
         <v>288</v>
@@ -54949,7 +54926,7 @@
     </row>
     <row r="457" hidden="true">
       <c r="A457" t="s" s="2">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="B457" t="s" s="2">
         <v>292</v>
@@ -55061,7 +55038,7 @@
     </row>
     <row r="458" hidden="true">
       <c r="A458" t="s" s="2">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="B458" t="s" s="2">
         <v>293</v>
@@ -55175,7 +55152,7 @@
     </row>
     <row r="459" hidden="true">
       <c r="A459" t="s" s="2">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="B459" t="s" s="2">
         <v>294</v>
@@ -55291,7 +55268,7 @@
     </row>
     <row r="460" hidden="true">
       <c r="A460" t="s" s="2">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="B460" t="s" s="2">
         <v>295</v>
@@ -55405,7 +55382,7 @@
     </row>
     <row r="461" hidden="true">
       <c r="A461" t="s" s="2">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="B461" t="s" s="2">
         <v>301</v>
@@ -55519,7 +55496,7 @@
     </row>
     <row r="462" hidden="true">
       <c r="A462" t="s" s="2">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="B462" t="s" s="2">
         <v>306</v>
@@ -55631,7 +55608,7 @@
     </row>
     <row r="463" hidden="true">
       <c r="A463" t="s" s="2">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="B463" t="s" s="2">
         <v>310</v>
@@ -55743,7 +55720,7 @@
     </row>
     <row r="464" hidden="true">
       <c r="A464" t="s" s="2">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="B464" t="s" s="2">
         <v>311</v>
@@ -55857,7 +55834,7 @@
     </row>
     <row r="465" hidden="true">
       <c r="A465" t="s" s="2">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B465" t="s" s="2">
         <v>312</v>
@@ -55973,7 +55950,7 @@
     </row>
     <row r="466" hidden="true">
       <c r="A466" t="s" s="2">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="B466" t="s" s="2">
         <v>313</v>
@@ -56085,7 +56062,7 @@
     </row>
     <row r="467" hidden="true">
       <c r="A467" t="s" s="2">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="B467" t="s" s="2">
         <v>318</v>
@@ -56199,7 +56176,7 @@
     </row>
     <row r="468" hidden="true">
       <c r="A468" t="s" s="2">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="B468" t="s" s="2">
         <v>322</v>
@@ -56311,7 +56288,7 @@
     </row>
     <row r="469" hidden="true">
       <c r="A469" t="s" s="2">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="B469" t="s" s="2">
         <v>325</v>
@@ -56423,7 +56400,7 @@
     </row>
     <row r="470" hidden="true">
       <c r="A470" t="s" s="2">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="B470" t="s" s="2">
         <v>327</v>
@@ -56535,7 +56512,7 @@
     </row>
     <row r="471" hidden="true">
       <c r="A471" t="s" s="2">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="B471" t="s" s="2">
         <v>330</v>
@@ -56647,7 +56624,7 @@
     </row>
     <row r="472" hidden="true">
       <c r="A472" t="s" s="2">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="B472" t="s" s="2">
         <v>333</v>
@@ -56759,7 +56736,7 @@
     </row>
     <row r="473" hidden="true">
       <c r="A473" t="s" s="2">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="B473" t="s" s="2">
         <v>337</v>
@@ -56871,7 +56848,7 @@
     </row>
     <row r="474" hidden="true">
       <c r="A474" t="s" s="2">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="B474" t="s" s="2">
         <v>338</v>
@@ -56985,7 +56962,7 @@
     </row>
     <row r="475" hidden="true">
       <c r="A475" t="s" s="2">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B475" t="s" s="2">
         <v>339</v>
@@ -57101,7 +57078,7 @@
     </row>
     <row r="476" hidden="true">
       <c r="A476" t="s" s="2">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="B476" t="s" s="2">
         <v>340</v>
@@ -57213,7 +57190,7 @@
     </row>
     <row r="477" hidden="true">
       <c r="A477" t="s" s="2">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="B477" t="s" s="2">
         <v>343</v>
@@ -57325,7 +57302,7 @@
     </row>
     <row r="478" hidden="true">
       <c r="A478" t="s" s="2">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="B478" t="s" s="2">
         <v>346</v>
@@ -57439,7 +57416,7 @@
     </row>
     <row r="479" hidden="true">
       <c r="A479" t="s" s="2">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="B479" t="s" s="2">
         <v>350</v>
@@ -57553,7 +57530,7 @@
     </row>
     <row r="480" hidden="true">
       <c r="A480" t="s" s="2">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="B480" t="s" s="2">
         <v>354</v>
@@ -57667,13 +57644,13 @@
     </row>
     <row r="481" hidden="true">
       <c r="A481" t="s" s="2">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="B481" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C481" t="s" s="2">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="D481" t="s" s="2">
         <v>75</v>
@@ -57698,10 +57675,10 @@
         <v>249</v>
       </c>
       <c r="L481" t="s" s="2">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="M481" t="s" s="2">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="N481" s="2"/>
       <c r="O481" s="2"/>
@@ -57781,7 +57758,7 @@
     </row>
     <row r="482" hidden="true">
       <c r="A482" t="s" s="2">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="B482" t="s" s="2">
         <v>274</v>
@@ -57893,7 +57870,7 @@
     </row>
     <row r="483" hidden="true">
       <c r="A483" t="s" s="2">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B483" t="s" s="2">
         <v>275</v>
@@ -58007,7 +57984,7 @@
     </row>
     <row r="484" hidden="true">
       <c r="A484" t="s" s="2">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="B484" t="s" s="2">
         <v>276</v>
@@ -58123,7 +58100,7 @@
     </row>
     <row r="485" hidden="true">
       <c r="A485" t="s" s="2">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="B485" t="s" s="2">
         <v>277</v>
@@ -58235,7 +58212,7 @@
     </row>
     <row r="486" hidden="true">
       <c r="A486" t="s" s="2">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="B486" t="s" s="2">
         <v>280</v>
@@ -58349,7 +58326,7 @@
     </row>
     <row r="487" hidden="true">
       <c r="A487" t="s" s="2">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="B487" t="s" s="2">
         <v>284</v>
@@ -58375,13 +58352,13 @@
         <v>75</v>
       </c>
       <c r="K487" t="s" s="2">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="L487" t="s" s="2">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="M487" t="s" s="2">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="N487" s="2"/>
       <c r="O487" s="2"/>
@@ -58444,13 +58421,13 @@
         <v>75</v>
       </c>
       <c r="AJ487" t="s" s="2">
-        <v>372</v>
+        <v>75</v>
       </c>
       <c r="AK487" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL487" t="s" s="2">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="AM487" t="s" s="2">
         <v>75</v>
@@ -58461,7 +58438,7 @@
     </row>
     <row r="488" hidden="true">
       <c r="A488" t="s" s="2">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="B488" t="s" s="2">
         <v>288</v>
@@ -58573,7 +58550,7 @@
     </row>
     <row r="489" hidden="true">
       <c r="A489" t="s" s="2">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="B489" t="s" s="2">
         <v>292</v>
@@ -58685,7 +58662,7 @@
     </row>
     <row r="490" hidden="true">
       <c r="A490" t="s" s="2">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="B490" t="s" s="2">
         <v>293</v>
@@ -58799,7 +58776,7 @@
     </row>
     <row r="491" hidden="true">
       <c r="A491" t="s" s="2">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="B491" t="s" s="2">
         <v>294</v>
@@ -58915,7 +58892,7 @@
     </row>
     <row r="492" hidden="true">
       <c r="A492" t="s" s="2">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="B492" t="s" s="2">
         <v>295</v>
@@ -59029,7 +59006,7 @@
     </row>
     <row r="493" hidden="true">
       <c r="A493" t="s" s="2">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="B493" t="s" s="2">
         <v>301</v>
@@ -59143,7 +59120,7 @@
     </row>
     <row r="494" hidden="true">
       <c r="A494" t="s" s="2">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="B494" t="s" s="2">
         <v>306</v>
@@ -59255,7 +59232,7 @@
     </row>
     <row r="495" hidden="true">
       <c r="A495" t="s" s="2">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="B495" t="s" s="2">
         <v>310</v>
@@ -59367,7 +59344,7 @@
     </row>
     <row r="496" hidden="true">
       <c r="A496" t="s" s="2">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="B496" t="s" s="2">
         <v>311</v>
@@ -59481,7 +59458,7 @@
     </row>
     <row r="497" hidden="true">
       <c r="A497" t="s" s="2">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="B497" t="s" s="2">
         <v>312</v>
@@ -59597,7 +59574,7 @@
     </row>
     <row r="498" hidden="true">
       <c r="A498" t="s" s="2">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="B498" t="s" s="2">
         <v>313</v>
@@ -59709,7 +59686,7 @@
     </row>
     <row r="499" hidden="true">
       <c r="A499" t="s" s="2">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="B499" t="s" s="2">
         <v>318</v>
@@ -59823,7 +59800,7 @@
     </row>
     <row r="500" hidden="true">
       <c r="A500" t="s" s="2">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="B500" t="s" s="2">
         <v>322</v>
@@ -59935,7 +59912,7 @@
     </row>
     <row r="501" hidden="true">
       <c r="A501" t="s" s="2">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="B501" t="s" s="2">
         <v>325</v>
@@ -60047,7 +60024,7 @@
     </row>
     <row r="502" hidden="true">
       <c r="A502" t="s" s="2">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="B502" t="s" s="2">
         <v>327</v>
@@ -60159,7 +60136,7 @@
     </row>
     <row r="503" hidden="true">
       <c r="A503" t="s" s="2">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="B503" t="s" s="2">
         <v>330</v>
@@ -60271,7 +60248,7 @@
     </row>
     <row r="504" hidden="true">
       <c r="A504" t="s" s="2">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="B504" t="s" s="2">
         <v>333</v>
@@ -60383,7 +60360,7 @@
     </row>
     <row r="505" hidden="true">
       <c r="A505" t="s" s="2">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="B505" t="s" s="2">
         <v>337</v>
@@ -60495,7 +60472,7 @@
     </row>
     <row r="506" hidden="true">
       <c r="A506" t="s" s="2">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B506" t="s" s="2">
         <v>338</v>
@@ -60609,7 +60586,7 @@
     </row>
     <row r="507" hidden="true">
       <c r="A507" t="s" s="2">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B507" t="s" s="2">
         <v>339</v>
@@ -60725,7 +60702,7 @@
     </row>
     <row r="508" hidden="true">
       <c r="A508" t="s" s="2">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="B508" t="s" s="2">
         <v>340</v>
@@ -60837,7 +60814,7 @@
     </row>
     <row r="509" hidden="true">
       <c r="A509" t="s" s="2">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="B509" t="s" s="2">
         <v>343</v>
@@ -60949,7 +60926,7 @@
     </row>
     <row r="510" hidden="true">
       <c r="A510" t="s" s="2">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="B510" t="s" s="2">
         <v>346</v>
@@ -61063,7 +61040,7 @@
     </row>
     <row r="511" hidden="true">
       <c r="A511" t="s" s="2">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="B511" t="s" s="2">
         <v>350</v>
@@ -61177,7 +61154,7 @@
     </row>
     <row r="512" hidden="true">
       <c r="A512" t="s" s="2">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="B512" t="s" s="2">
         <v>354</v>
@@ -61291,13 +61268,13 @@
     </row>
     <row r="513" hidden="true">
       <c r="A513" t="s" s="2">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="B513" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C513" t="s" s="2">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="D513" t="s" s="2">
         <v>75</v>
@@ -61322,10 +61299,10 @@
         <v>249</v>
       </c>
       <c r="L513" t="s" s="2">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="M513" t="s" s="2">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="N513" s="2"/>
       <c r="O513" s="2"/>
@@ -61405,7 +61382,7 @@
     </row>
     <row r="514" hidden="true">
       <c r="A514" t="s" s="2">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="B514" t="s" s="2">
         <v>274</v>
@@ -61517,7 +61494,7 @@
     </row>
     <row r="515" hidden="true">
       <c r="A515" t="s" s="2">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="B515" t="s" s="2">
         <v>275</v>
@@ -61631,7 +61608,7 @@
     </row>
     <row r="516" hidden="true">
       <c r="A516" t="s" s="2">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="B516" t="s" s="2">
         <v>276</v>
@@ -61747,7 +61724,7 @@
     </row>
     <row r="517" hidden="true">
       <c r="A517" t="s" s="2">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="B517" t="s" s="2">
         <v>277</v>
@@ -61859,7 +61836,7 @@
     </row>
     <row r="518" hidden="true">
       <c r="A518" t="s" s="2">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="B518" t="s" s="2">
         <v>280</v>
@@ -61973,14 +61950,14 @@
     </row>
     <row r="519" hidden="true">
       <c r="A519" t="s" s="2">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="B519" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C519" s="2"/>
       <c r="D519" t="s" s="2">
-        <v>451</v>
+        <v>408</v>
       </c>
       <c r="E519" s="2"/>
       <c r="F519" t="s" s="2">
@@ -61999,16 +61976,16 @@
         <v>75</v>
       </c>
       <c r="K519" t="s" s="2">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="L519" t="s" s="2">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="M519" t="s" s="2">
-        <v>454</v>
+        <v>411</v>
       </c>
       <c r="N519" t="s" s="2">
-        <v>455</v>
+        <v>412</v>
       </c>
       <c r="O519" s="2"/>
       <c r="P519" t="s" s="2">
@@ -62070,13 +62047,13 @@
         <v>75</v>
       </c>
       <c r="AJ519" t="s" s="2">
-        <v>456</v>
+        <v>75</v>
       </c>
       <c r="AK519" t="s" s="2">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="AL519" t="s" s="2">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="AM519" t="s" s="2">
         <v>75</v>
@@ -62087,7 +62064,7 @@
     </row>
     <row r="520" hidden="true">
       <c r="A520" t="s" s="2">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="B520" t="s" s="2">
         <v>288</v>
@@ -62199,7 +62176,7 @@
     </row>
     <row r="521" hidden="true">
       <c r="A521" t="s" s="2">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="B521" t="s" s="2">
         <v>292</v>
@@ -62311,7 +62288,7 @@
     </row>
     <row r="522" hidden="true">
       <c r="A522" t="s" s="2">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="B522" t="s" s="2">
         <v>293</v>
@@ -62425,7 +62402,7 @@
     </row>
     <row r="523" hidden="true">
       <c r="A523" t="s" s="2">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="B523" t="s" s="2">
         <v>294</v>
@@ -62541,7 +62518,7 @@
     </row>
     <row r="524" hidden="true">
       <c r="A524" t="s" s="2">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="B524" t="s" s="2">
         <v>295</v>
@@ -62655,7 +62632,7 @@
     </row>
     <row r="525" hidden="true">
       <c r="A525" t="s" s="2">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="B525" t="s" s="2">
         <v>301</v>
@@ -62769,7 +62746,7 @@
     </row>
     <row r="526" hidden="true">
       <c r="A526" t="s" s="2">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="B526" t="s" s="2">
         <v>306</v>
@@ -62881,7 +62858,7 @@
     </row>
     <row r="527" hidden="true">
       <c r="A527" t="s" s="2">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="B527" t="s" s="2">
         <v>310</v>
@@ -62993,7 +62970,7 @@
     </row>
     <row r="528" hidden="true">
       <c r="A528" t="s" s="2">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="B528" t="s" s="2">
         <v>311</v>
@@ -63107,7 +63084,7 @@
     </row>
     <row r="529" hidden="true">
       <c r="A529" t="s" s="2">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="B529" t="s" s="2">
         <v>312</v>
@@ -63223,7 +63200,7 @@
     </row>
     <row r="530" hidden="true">
       <c r="A530" t="s" s="2">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="B530" t="s" s="2">
         <v>313</v>
@@ -63335,7 +63312,7 @@
     </row>
     <row r="531" hidden="true">
       <c r="A531" t="s" s="2">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="B531" t="s" s="2">
         <v>318</v>
@@ -63449,7 +63426,7 @@
     </row>
     <row r="532" hidden="true">
       <c r="A532" t="s" s="2">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="B532" t="s" s="2">
         <v>322</v>
@@ -63561,7 +63538,7 @@
     </row>
     <row r="533" hidden="true">
       <c r="A533" t="s" s="2">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="B533" t="s" s="2">
         <v>325</v>
@@ -63673,7 +63650,7 @@
     </row>
     <row r="534" hidden="true">
       <c r="A534" t="s" s="2">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="B534" t="s" s="2">
         <v>327</v>
@@ -63785,7 +63762,7 @@
     </row>
     <row r="535" hidden="true">
       <c r="A535" t="s" s="2">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="B535" t="s" s="2">
         <v>330</v>
@@ -63897,7 +63874,7 @@
     </row>
     <row r="536" hidden="true">
       <c r="A536" t="s" s="2">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="B536" t="s" s="2">
         <v>333</v>
@@ -64009,7 +63986,7 @@
     </row>
     <row r="537" hidden="true">
       <c r="A537" t="s" s="2">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="B537" t="s" s="2">
         <v>337</v>
@@ -64121,7 +64098,7 @@
     </row>
     <row r="538" hidden="true">
       <c r="A538" t="s" s="2">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="B538" t="s" s="2">
         <v>338</v>
@@ -64235,7 +64212,7 @@
     </row>
     <row r="539" hidden="true">
       <c r="A539" t="s" s="2">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="B539" t="s" s="2">
         <v>339</v>
@@ -64351,7 +64328,7 @@
     </row>
     <row r="540" hidden="true">
       <c r="A540" t="s" s="2">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="B540" t="s" s="2">
         <v>340</v>
@@ -64463,7 +64440,7 @@
     </row>
     <row r="541" hidden="true">
       <c r="A541" t="s" s="2">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="B541" t="s" s="2">
         <v>343</v>
@@ -64575,7 +64552,7 @@
     </row>
     <row r="542" hidden="true">
       <c r="A542" t="s" s="2">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="B542" t="s" s="2">
         <v>346</v>
@@ -64689,7 +64666,7 @@
     </row>
     <row r="543" hidden="true">
       <c r="A543" t="s" s="2">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="B543" t="s" s="2">
         <v>350</v>
@@ -64803,7 +64780,7 @@
     </row>
     <row r="544" hidden="true">
       <c r="A544" t="s" s="2">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="B544" t="s" s="2">
         <v>354</v>
@@ -64917,10 +64894,10 @@
     </row>
     <row r="545" hidden="true">
       <c r="A545" t="s" s="2">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="C545" s="2"/>
       <c r="D545" t="s" s="2">
@@ -64943,19 +64920,19 @@
         <v>86</v>
       </c>
       <c r="K545" t="s" s="2">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="L545" t="s" s="2">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="M545" t="s" s="2">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="N545" t="s" s="2">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="O545" t="s" s="2">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="P545" t="s" s="2">
         <v>75</v>
@@ -65004,7 +64981,7 @@
         <v>75</v>
       </c>
       <c r="AF545" t="s" s="2">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="AG545" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-ms-bundle-hla-multilocus.xlsx
+++ b/StructureDefinition-ms-bundle-hla-multilocus.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-01T13:56:53-05:00</t>
+    <t>2024-05-20T10:22:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
